--- a/Monachium.xlsx
+++ b/Monachium.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>linki</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Transkrypcja</t>
   </si>
   <si>
+    <t>Atrakcje</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=2vLodGcWUU4</t>
   </si>
   <si>
@@ -86,6 +89,318 @@
   </si>
   <si>
     <t>Dzień dobry moi drodzy, z tej strony Michał, witam w kolejnym odcinku, a dzisiaj przy okazji, że jedziemy w Alpy, bo my lubimy żyć aktywnie z tym panem Panie reżyserze! Ale też z większą ekipą przejeżdżamy przez Monachium i chcemy zobaczyć jak wygląda to miasto, jak się tutaj żyje tak na szybko Taki 3 godzinny czas mamy, żeby Monachium szybko pozwiedzać I ciekawy jestem, bo zawsze się gdzieś tutaj obok przejeżdżało, ale nie było czasu tutaj wjechać No i zobaczymy, takie pierwsze wrażenie, bo zachwalacie, dużo osób mieszka w Monachium, mieszkacie na Bawarii, mówicie, że tutaj jest fajnie Zobaczymy i cóż, no pierwsze wrażenie dla mnie, jesteśmy na stacji Ubana, no nie wygląda to jakoś przepięknie Miasto jest czyste na pewno, ale już też jak pierwsze takie kroki zrobiliśmy po mieście, to na pewno widać, że jest tutaj naprawdę bardzo, bardzo mnogo multikulturalowości I na pewno zdecydowanie więcej niż w Lipsku No ale jedziemy za chwilę Ubanem, nie przepraszam, Esbanem, później pojedziemy Ubanem, Esbanem na centrum i zobaczymy jak wygląda to miasto Wszelkie prawa zastrzeżone Irish Connoisseur Fajki mnie interesują, cygara, no tutaj rozpuszcza, zobacz tutaj, o ja ci kręcę, ile tytonów różnych Fajny, ekskluzywny sklep, whisky, tyton, cygara Dobra, no a my już powoli w sumie dochodzimy do ścisłego centrum, w sumie można powiedzieć, że już jesteśmy w ścisłym centrum Monachium Nie wiemy za bardzo gdzie iść, czy w prawo, czy w lewo Idziemy na Czuja do przodu I co, na pewno życie wraca do normy w Niemczech Coraz więcej ludzi na ulicach, coś się tutaj dzieje, ludzie siedzą w knajpkach, restauracje w końcu się otworzyły Póki co na świeżym powietrzu, ale jest, można już gdzieś usiąść i można, jemy tutaj? Dobra, to idziemy najpierw coś zjeść, bo jesteśmy strasznie głodni, bo jak wyruszyliśmy z Lipska o 7 rano, to jeszcze nic nie jedliśmy Także zjemy i idziemy dalej zwiedzać Chodź tutaj prosto może, wiesz? No i już zdecydowanie robi się ładniej, zdecydowanie robi się tłoczniej No i czujemy już klimat Monachium to oczywiście w przetłumaczeniu na polskie czy czeski język fajnie tłumaczy Mnichów, czyli miasto Mnichów, Mynsien No i tutaj na każdym rogu właśnie widać takie historyczne naleciałości tego procesu A my znajdujemy się na Marianenplatz, czyli jednym z najbardziej charakterystycznych miejsc Monachium Troszkę wietrzna dzisiaj pogoda, ale jest dosyć przyjemnie Monachium, jedno z najbogatszych miast na świecie praktycznie można powiedzieć, po lewej stronie sklep Bayernu Monachium Można sobie kupić koszulkę z numerem 9, który oczywiście jak wiemy należy do Roberta Lewandowskiego A Robert Lewandowski w ogóle dzisiaj ma szansę pobić rekord Gerda Millera i strzelić 41 bramkę w Bundeslidze No kręcimy się już prawie godzinkę po centrum Monachium i powiem Wam szczerze, dla mnie miasto jak miasto Nawet co mi się nie podoba to jest bardzo tutaj dużo turystów i na przykład jak porównuję to do Lipska Oczywiście w tym roku ciężko porównać bo cała sytuacja jest jaka jest, ale do lat poprzednich to ten ruch turystyczny w Lipsku tak przebiega dosyć można powiedzieć bokiem Nie koliduje z tym życiem codziennym i ma się wrażenie, że może nie tyle, że jest luźniej co nie jest się tak osaczonym tymi turystami z każdej strony Jak widzimy to już po pierwszych ulicach tutaj w Monachium Kto wie, kto zna i ogląda mój kanał to wiecie, że ja mieszkam na wschodzie Niemiec w Lipsku I bardzo dużo ludzi właśnie z zachodu na wschód między innymi przeprowadziło się ze względu na to, że tutaj w Monachium i generalnie na zachodzie Niemiec jest bardzo problem z mieszkaniami, ze znalezieniem tych mieszkań Jak pracy tutaj jest bardzo dużo i zarobicie dobre pieniążki no to na start takie mieszkanie znaleźć jest bardzo ciężko Ja sam przez to przechodziłem, co prawda nie w Monachium, ale pod Stuttgartem No i na pewno to miasto jest fajne, żeby tutaj przyjechać, pozwiedzać, ale żeby wystartować bez jakiegoś dobrego wykształcenia będzie wam bardzo ciężko Bardzo ciężko, także żeby uniknąć tego stresu na pewno lepiej wybrać te bardziej wschodnie landy, gdzie mieszkań macie bardzo, bardzo dużo Właśnie nie chcę oczywiście narzekać, ale to co rzuca mi się jako różnica, Piotrek też właśnie zwrócił uwagę w Berlinie W Monachium brak takiej autentyczności, mijamy jakieś 60-70 letnie panie z torebkami z Gucci'ego, pełno ekskluzywnych sklepów dookoła Podczas gdy, jeżeli jesteś na przykład w Lipsku, odejdziesz te 2-3 ulice dalej, widzisz młodzież taką, którzy piją piwo w parkach, wychillowani, z dreadami, obkolczykowani W Berlinie zresztą podobnie, nie? No raczej, szpejti na każdym kroku Szpejti na każdym kroku, taki sklep, no i właśnie te miasta żyją tak autentycznie, nie? A tutaj takie mam wrażenie, że ludzie zakładają maski, bo jak nie będziesz miał, miała zarąbistej torebki, to nie pasujesz I takie moje wrażenie, oczywiście nie każdy nie musi się z tym zgadzać, natomiast jak się żyje właśnie w takiej mieście jak Lipsk, to bardzo dobrze to widać, że nieważne czy masz włosy zielone, czy krótkie, czy długie Po prostu jest taki ogólnopanujący chillout, a tego w Monachium na pewno brakuje Takie sprawia wrażenie sterylnego bardzo miasta, jak to Piotrek powiedział przed chwilą Wszyscy są bardzo zadbani Wszyscy są bardzo zadbani, dokładnie No i trudno się z tym nie zgodzić Ale oczywiście my zwiedzamy to miasto bardzo, bardzo szybko, też nie jestem w stanie ocenić jak to tutaj wygląda na co dzień, bo na pewno dużo, dużo się dzieje w tym mieście To co jeszcze nas ciekawi, to jak wiemy w 1972 roku w tym mieście odbyła się olimpiada No i jeszcze pozostała po tych czasach wioska olimpijska, olimpiaż, stadion, więc też za chwileczkę korzystając z tego, że mamy całodniową kartę na metro, S-Bahn i całą komunikację, wybierzemy się w to miejsce I zobaczymy jak to wygląda No, ale tak jak mówię, dla mnie Monachium no nie robi wrażenia jakiegoś mega Szczerze powiedziawszy staróweczka w Lipsku bardziej do mnie nawet przemawia, nie wiem, może to już kwestia przyzwyczajenia Ale gdybym miał tutaj specjalnie się przeprowadzać, nie wiem, ze względu na miasto, to raczej nie Ale wy musicie sami oczywiście wiedzieć, co dla kogo jest najbardziej odpowiednie Monachium, Monachium, bardzo ładne miasto Ale ja czuję klimat bardziej na wschodzie Dobra, my już jesteśmy pod wioską olimpijską, praktycznie i za mną siedziba BMW Nawet przez przypadek trafiliśmy tutaj, bo nie spodziewałem się, że zaraz obok wioski olimpijskiej jest właśnie siedziba główna i muzeum BMW Czyli tego giganta motoryzacyjnego Tak to wygląda, my jesteśmy gdzieś tutaj, tu jest stadion olimpijski, na którym jeszcze do niedawna rozgrywał swoje mecze Bayer Monachium A tutaj BMW muzeum Tu jesteśmy, pod usta wieża A tutaj? A okej, dobra, to tutaj Mała korekta Fajnie, bo to wszystko co tutaj widzimy zostało prawie 50 lat temu wybudowane 1972 rok dokładnie była olimpiada w Monachium Na pewno już to było ileś razy przebudowywane i tak dalej Natomiast część tych budynków oczywiście jest w oryginalnym stylu zachowana i do dzisiaj robi to takie futuro wrażenie, fajne No a podejrzewam, że 50 lat temu dla przybywających ludzi na te igrzyska olimpijskie musiało to robić jeszcze większe wrażenie Bardzo dużo ludzi się tutaj kręci, ładnie, naprawdę fajnie to wygląda Fajne miejsce, żeby spędzić czas i myślę, że jak te centrum Monachium nie zrobiło na nas takiego wrażenia Tak jak mówię, dużo takiego plastiku, sterylności w tym mieście To tutaj naprawdę już jest fajnie Tutaj myślę, że mi się odnalazł O, a ja widzę Piotrek miejsce, gdzie musimy się wdrapać Na lewo, widzisz tą górkę? No i tam jest punkt widokowy Tam jest taka góreczka I stamtąd będziemy mogli podziwiać całą wioskę olimpijską oraz stadion olimpijski z góry To będzie taka rozgrzewka przed dzisiejszym wejściem na Batman House Zgadza się To nie łabędzie, nie kaczki, ale coś gęściej Muzyka Bardzo fajne miejsce, trochę wietrzną pogodę traciliśmy, ale generalnie można tutaj zobaczyć właśnie z góry Jak to wyglądało 50 lat temu, taki zarys tej wioski Na pewno troszkę się to zmieniło, ale można poczuć ten klimat Widzimy też kibiców Bayernu Monachium Bo dzisiaj mecz właśnie z Augsburgiem I liczymy na 41 góra Roberta Lewandowskiego A ja z tego miejsca pragnę podziękować Z takiego krótkiego, szybciutkiego vloga z Monachium Oczywiście można by tutaj pokazywać dużo więcej rzeczy ciekawych i tak dalej Ale jesteśmy dzisiaj mocno ograniczeni czasowo Ale i tak się cieszę, że to co chcieliśmy zobaczyliśmy, czyli stare miasto i wioskę olimpijską A na resztę pewnie przyjdzie czas No i jeszcze widzimy też w tle pięknie wyłaniające się już Alpy Miejsce, do którego zmierzamy i wchodzimy na Batman Pozdrawiam, wszystkiego dobrego i do zobaczenia Do zobaczenia</t>
+  </si>
+  <si>
+    <t>Cześć, witam was serdecznie na kanale EmigrandaTV. Dzisiaj zrobimy sobie mały spacer po Monachium. Niech teraz wyobraźcie sobie taką sytuację. Przyjeżdżacie do Monachium, macie 1 lub 2 dni. No ale wiadomo, to jest najdroższe miasto w Niemczech, więc chcecie zaoszczędzić kilka złotych. Tak więc tu jest kilka porad od nas, jak to możecie zrobić. Porada numer 1. Monachium jest bardzo zielonym miastem. Jest tutaj bardzo dużo parków. Niektóre są naprawdę fantastyczne, a generalnie to tutaj można chodzić czy jeździć rowerem. Dziesiątki kilometrów i w zasadzie nie widzieć nic więcej poza parkami, skwerami, jakimiś podobnymi obszarami zielonymi. Tak więc jest to naprawdę jedna z najlepszych rzeczy jakie są w Monachium, która nam się super podoba. I wam to serdecznie polecamy. Spośród wielu parków największym i najsłynniejszym jest park angielski, znajdujący się w samym centrum miasta. Zaledwie 10 kilometrów od historycznego centrum Monachium. I jest to nie to, że bardzo fajne miejsce do spaceru. Można tu spacerować dosłownie godzinami, ponieważ jest to bardzo duży park. Ale też jest to miejsce, gdzie można sobie chociażby urządzić piknik. Kolejna rada to jest taka, że Monachium posiada dobrze rozbudowaną komunikację publiczną i radzę wam przestudiować taryfę komunikacji publicznej. A to dlatego, że oprócz zwykłych jednorazowych biletów jest kilka innych ciekawych opcji. Na przykład karnety wieloprzejazdowe, bilety dobowe. Bilet dobowy kosztuje swoją drogą tyle co 2,5 normalnego przejazdu. Czy tak zwane krótkie bilety, kurzstrecke, które pozwalają na tańszy przejazd na niedużych dystancjach. Monachium było i jest do dzisiaj jednym z najważniejszych miast na południu sfery niemieckojęzycznej. Dlatego też zachowało się tutaj bardzo dużo cennych zabytków. Dlatego warto chociażby zwrócić uwagę na kościoły. Kościoły w historycznych miastach i innych miejscach warto zwiedzać z kilku powodów. Po pierwsze osoby uduchowione, wierzące, religijne mogą chcieć je zwiedzać z powodów religijnych. Ale inny powód jest taki, że kościoły są zabytkami i były przez lata wizytówkami chociażby miast, lokalnych społeczności. Na to składali się ludzie całych miast po to, żeby wspólnie dzielić, użytkować różnego rodzaju budynki. Tak więc bardzo dużo fantastycznej sztuki zazwyczaj za darmo jest do zwiedzenia w kościołach. Ale ten kościół za mną zbudowany przez Quirina Asama jest wyjątkowy, ponieważ on jest nie tyle wizytówką zasponsorowaną przez społeczność, co przez samego artystę, który chciał pokazać tym, jak wspaniałe ma możliwości, żeby zachęcać kolejnych zleceniodawców do skorzystania z jego usług. No ale powiedzmy, że nie interesuje Was tak bardzo zwiedzanie kościołów, nie znacie się za bardzo na historii sztuki, na znanych artystach. Czy można zwiedzić w Monachium coś innego za darmo? Tak, jest kilka muzeów i miejsc, które są bardzo ciekawe i można zwiedzić je za darmo. Jednym z takich miejsc jest zamek, dawny zamek Wittelsbachów na Starym Mieście. Został on w znaczącym stopniu zniszczony w czasie wojny, dlatego tylko nieliczne fragmenty, takie jak widać za mną, zachowały się w całości. I związana jest z nim cała masa ciekawych historii, nie tylko ta, którą zazwyczaj opowiadają przewodnicy na temat małpki skaczącej tu po oknach, co porwała przyszłego cesarza Ludwika IV, ale wiążą się właśnie z Ludwikiem IV, który był bardzo ciekawą, bardzo skomplikowaną osobą i całej rzeszy ludzi, która tutaj wokół niego z nim była związana. Jeśli chcecie więcej, opowiadam o tym na wycieczkach, jakie oprowadzam po Monachium, kontakt macie na dole. Natomiast co do naszych rad, tutaj jest taki infopoint, jest to punkt informacyjny na temat wszystkich zamków w Bawarii, tu można kupić do nich bilety. Chodzi o te, które są we własności rządu bawarskiego, ale na dole zachowała się piwnica zamkowa, gotycka, jedyne w pełni zachowane pomieszczenie całego zamku. I sprawa jest taka, że jest tam wystawa na temat historii tego zamku, na temat Ludwika IV i można ją zwiedzić za darmo. Ale oczywiście to nie jest jedyne takie miejsce, jakie można zwiedzić w Monachium, jest jeszcze kilka innych kolekcji i muzeów, które są ogólnodostępne. Na przykład dość ciekawy jest Muzeum Paleontologiczne na Maxforstadt, które można zwiedzić całkowicie za darmo właśnie. Za darmo można zwiedzić też kilka galerii sztuki, no ale to robicie na własne ryzyko. Będąc na Placu Mariackim w Monachium spróbujcie zrobić zdjęcie tak z perspektywą, żeby Marysia była dokładnie między wieżami katedry. Poza tym starajcie się tutaj przyjść w czasie, kiedy gra Glockenspiel. Glockenspiel to jest na tej wieży taka seria dwóch przedstawień związanych z historią i legendami Monachium. Grana jest w sezonie letnim 11, 12 i 15, ale jeśli chcecie zrobić fajne zdjęcie z daleka od tłumów to tutaj taki mały tip od nas. Tu jest taka księgarnia Hugendubel, można tu wejść na drugie piętro i z okna dużo bardziej na wprost robić zdjęcie Glockenspiel. Jeśli uda Wam się zaplanować przyjazd do Monachium w weekend, tak żebyście byli tutaj w niedzielę, to jeśli jesteście zainteresowani muzeami, liczne muzea Monachium, przede wszystkim te, które należą do landu bawarskiego, oferują wstęp po bardzo niskiej cenie jednego euro. Nie wiem co sobie teraz myślicie, spoko miasto, no ale ja wolę nad morze, tam gdzie są fale. Słuchajcie, nie ma problemu, bierzcie swoje deski i wskakujcie na fale. To jest taka ciekawostka, bo w Monachium, posłuchajcie, jest to jak najbardziej normalne, że latem widzi się na ulicach w centrum chociażby rowerzystów jadących sobie z deskami surfingowymi. A to dlatego, że przepływający przez ogród angielski Strumming Eisbach jest sztucznie wzburzony w jednym czy w dwóch miejscach, że ludzie chętnie tutaj przychodzą sobie właśnie poćwiczyć surfowaniem. Oczywiście jedną z największych atrakcji Bawarii są ogrody piwne, czyli Bir Gardenty. Jednak, tak jak widzicie tutaj za mną, nie mają one za dużo wspólnego z tymi monstrami, które trochę szpecą ulice polskich miast, tylko to są takie parkowe, ogrodowe przestrzenie, gdzie można sobie przyjść, wypić piwo, coś zjeść. Ale dlaczego tutaj o tym mówimy? A no dlatego, że o ile napoje trzeba zawsze kupić sobie samemu, to każdy jest uprawniony przynieść tutaj swoje jedzenie i zjeść obiad, posiłek, lunch, zrobić sobie piknik całkowicie na legalu, o ile jest się w strefie tak zwanej samoobsługowej, czyli self-din. No dobrze, mam nadzieję, że ten film Wam się spodobał i że nasze rady uznacie za praktyczne, za pożyteczne, nam się kiedyś przeradzą. Dajcie znać jak będziecie jechać do Monachium. A jeśli znacie to miasto, to co Wy byście dodali tutaj do naszej skromnej listy? Trzymajcie się, cześć!</t>
+  </si>
+  <si>
+    <t>There's a lot more to do in Munich than just the main tourist sites, and as someone who lived there for over five years, in today's video I'm excited to share with you the best things to do in Munich, Germany. In case you're new here, hi, I'm Kristina from HappyToWander.com and this channel is all about practical travel tips, so be sure to like and subscribe if that sounds like your kind of thing. And be sure to stick around until the end for a free map with all the places mentioned in this video, as well as recommendations for food and photo spots. Now before we tackle Munich's main sites, I should say that two of the best things to do in Munich are honestly drink Bavarian beer and eat Bavarian food, so let's put that as number one. In Munich, the beer scene is dominated by six breweries that brew within city limits. Augustinobreu, Hackerschor, Hofbreu, Löwenbreu, Paulaner, and Spaten. These are the breweries allowed to serve their beers at Oktoberfest. Different restaurants, bars, and beer gardens around town will typically pick just one to serve, so keep an eye out for brewery signs that indicate their allegiance and plan your drink strategically so you can sample all six. In terms of food, Bavarian cuisine is hearty but delicious, so during your visit make sure you try at least some of the following. Schweineplatten or Schweinehaxe, which is roast pork typically wolfed down with a potato dumpling and beer gravy. Obatzda, a delicious Bavarian cheese dip that's available at most beer gardens and beer halls, best enjoyed with a giant pretzel. Händl, roast chicken, a rather self-explanatory specialty. Käsespätzle, bouncy little noodles served with melted cheese and crispy onion. Kaiserschmarrn, a torn pancake dessert topped with sugar and served with jam and applesauce. Dampfnudel, a steamed dumpling served in a pool of vanilla sauce. And make sure you try a classic Bavarian breakfast while you're in town as well. This usually involves Weißwurst, which is a white sausage served with sweet mustard, a pretzel, and wheat beer. Just don't forget to peel your sausages. Now with all those important must-tries out of the way, let's move on to some sightseeing. We'll begin with activities in Munich's historic Old Town, with things to do in the district of Altstadt-Lehl. For most visitors, your first stop should be Munich's main square, Marienplatz, which has been the city's main square since the 12th century. Lined with gorgeous buildings like the striking neo-gothic Neuschadhaus, the New Town Hall, as well as the beautiful Alteschadhaus, the Old Town Hall, which today houses a toy museum. This square gets especially busy during the daily Glockenspiel performance, which happens at 11 a.m. and 12 p.m. daily, with an additional performance at 5 from March to October. The performance is cute but fairly short, so don't have your expectations set too high. A more interesting activity might be to actually see the inside of the amazing New Town Hall instead, which is possible through a guided tour. I can definitely recommend this because inside the Town Hall is actually one of the most beautiful libraries in the world. At the very least though, don't forget to step through the central archway of the Town Hall to peep into its little courtyard. It is really beautiful and a nice way to escape the crowds for a bit. Within this square, there are a few great opportunities for epic views as well, the classic one being the leg-melting climb up St. Peter's Tower, which of course gives great postcard views of the Neuschadhaus. But for a slightly easier option that's weirdly less busy, the views from the Neuschadhaus itself are pretty great too. And the bonus is that most of the tough work is done for you through an elevator. Besides these paid options though, you can actually get some nice views from other buildings along the square as well, including the Ludwig Beck Department Store Café on the fourth floor and, if you want a scenic place for a drink, Café Glockenspiel. From Marienplatz, you're steps away from Viktualienmarkt, Munich's thriving food market featuring stalls crammed with colorful produce, fresh bites to go and a bustling beer garden. Whether you want to shop or not, this market is well worth a nosy perusal. Keep an eye out for the market's large maypole, identifiable by its blue and white pattern, and figures representing the different trades that can be found in and around the area. It's actually carved out of the large Christmas tree that is set up every year for the big Christmas market in Marienplatz, so now you know. Another fun fact is you are actually allowed to bring food and picnics into any of Munich's beer gardens, so you can grab food from one of the many vendors, buy a beer and enjoy it all in the sunshine. Now the next thing to do is honestly just make the most of exploring Munich's beautiful old town, namely the area enclosed within the old city walls. Here are some highlights. First, the majestic Frauenkirche. The iconic onion domes of this Munich church are undoubtedly some of the city's most recognizable landmarks, thanks to a rule that says no building in the city center may exceed them in height. While the interior is not as stunningly ornate as some of the other churches in the city, it does have a very peculiar attraction, a devil's footprint in the back of the church. And after a decade of restorations, the south tower is now open once again for visitors, offering some of the best views in the city. Next, we have the Munich Residenz. This massive epic palace can be found right in the middle of the city and was where for centuries Bavarian rulers and decision makers lived in opulent splendor. While sadly much of the Residenz was destroyed during World War II, it has been gradually restored over the years and is open to visitors today. While you might not have time to actually tour the attraction inside, even walking by admiring the facades and courtyards is well worth it. Behind the Residenz is Hofgarten, a garden as opulent as you might expect from Bavarian royals, designed in Italian Renaissance style. The Bavarian State Chancellery building can also be found here on the east side of the garden. It's a beautiful building to admire, which many do, but most do miss the moving memorial hidden in the building's courtyard, which is dedicated to soldiers who lost their lives in World War I. Now, from Hofgarten you're also close to one of the other main squares in Munich's old town, Odeonsplatz. While the square dates back to the early 19th century, what's especially striking about it is if you look back on historical photos, it's remained largely unchanged. Its focal point, the Felternhalle, is actually inspired or, well, copied from the famous Loggia dei Lanzi in Florence. Today, you'll usually find Odeonsplatz as a stage for countless festivals and events, and a great jumping point for further explorations like over to the Mastrighella Teatinakirche, which has a gorgeous all-white interior, and the small street of Icardi Gasse just behind, where you'll find gold-laced cobblestones as an homage to those who took this alternative walking route as an act of protest against the Nazi party, who once required that passerbyers to the Felternhalle do the Nazi salute as they passed. Taking this alternative route became a quiet sign of protest, and the golden cobbles mark their bravery even today. On a lighter note, another touristy, though worthwhile place to stop in Munich's old town is the world-famous Hofbräuhaus. This iconic beer hall may be full of tourists rather than locals most of the time, but it is a lot of fun, with a leafy beer garden, beautiful interior decor, live music, and even a gorgeous Festhalle upstairs, which many visitors miss. If you can't make it to Oktoberfest, this is a great way to get a taste for the festive vibes. If you're not keen to rub elbows with your fellow tourists though, do know that each of Munich's big six breweries do actually have their own flagship beer halls as well, in addition to the many other beer taverns and halls scattered around the city, so you're really spoiled for choice when it comes to places to drink beer. The Spaten Beer Hall, for instance, known as Spatenhaus, can be found at Max-Josef-Platz, a beautiful square where you'll also find Munich's National Theatre, with its striking neoclassical façade. This is one of the most photogenic spots in Munich, especially with the beautiful buildings opposite the theatre, with outdoor seating that spills out into the street in summer months. From here, you're also steps away from Maximilianstrasse, the most luxurious shopping street in Munich, with high fashion brands for days and plenty of great shopping opportunities, window or otherwise, leading you to the Maximillanium at the end. Home of Bavaria's state parliament, and if you can believe it, a hyper-exclusive student residence and also a swanky Sunday brunch. For a more manageable shopping experience, you can also visit Kaufingerstrasse and Neuhauserstrasse. These two combined make up Munich's main pedestrianized shopping street. Containing all the usual suspects of European retail, like Zara and H&amp;M, the shopping here isn't terribly unique, but there are a few notable sites, including the German Hunting and Fishing Museum and St. Michael's Church, which is home to the crypt and final resting place of the Wittelsbach family, who famously ruled Bavaria for centuries. At the end of this shopping strip, you'll reach Karlsplatz, also known by its more popular name, Stachus. This lively square is dominated by Karlstor, the former city gate and other beautiful buildings, including the historic courthouse, aka Eustace Palast, across the street. This is one of my favorite hidden gems in Munich, and it's free to enter by the way, so be sure to check out its gorgeous interiors. Now speaking of city gates, there's two others you can visit in Munich's old town. The Isau Tor, which is home to a small museum, and Zenlinger Tor, which mainly offers a nice photo op. It is, however, close to one of the most beautiful churches in the city, Asamkirche. Intended originally to be a private church designed by rich artists for themselves, permission was only granted to build this church after they promised access would be open for everyone. Today, they've made good with that promise, and this tiny church is a baroque masterpiece that's beloved by locals and visitors alike, filled with ornate details that you have to see to believe. Another noteworthy square close to here is St. Jakobsplatz, where you'll find the Munich City Museum, as well as the Munich Jewish History Museum. Of course, Munich's old town isn't all just about opulence, grandeur, and historic sites. There are some stranger spots too, like the confusing Michael Jackson Memorial, found right in front of the luxurious Bayerischer Hof Hotel. Here, fans have turned a statue of a famous composer into a memorial and shrine to the king of pop, Michael Jackson, with photos, candles, fresh flowers, and more. It has been this way since Jackson's death in 2009, and is meticulously maintained by adoring fans over a decade later. Alright, let's pivot a little. Munich's old town has a lot of historic sightseeing opportunities, but I'd say the green side of Munich is part of what makes the city so special. So, another must-see in the Altstadt-Lehl neighborhood is watching surfers on Munich's famous river wave, the Eisbachwelle. This unique man-made standing wave hosts a consistent stream of river surfers, and has become a bit of a Munich icon and endless source of entertainment. I used to live by here and can confirm that there are surfers here day and night, no matter the weather, as well as a lesser-known beginner's wave further down the garden, if you want some more realistic clips. There are also some excellent museums in this area as well, like the Haus der Kunst, an imposing art gallery that was constructed in the 1930s as a museum showcasing Germany's finest art. There's also the Bavarian National Museum, which is home to a massive collection of European artifacts and decorative arts. Now, if you're looking to do something outdoors instead, though, good news. It's time to explore the famous English Garden. This massive park in the middle of Munich ranks among the largest city parks in the entire world, and is of course one of the most popular hangout spots in the city when the sun comes out. Highlights of a visit here include the park's Greek Monopteros, Japanese Tea-Rubin Garden, and of course, the Chinese Tower, one of Munich's most famous landmarks that, to be honest with you, is not at all Chinese in any form. Nonetheless, the Chinese Tower Beer Garden is one of the most popular beer gardens in Munich. Here you'll find a huge selection of traditional Bavarian foods, and of course, plenty of giant beers to keep you going, as well as live music from the tower during the warmer months. If you're looking for a quieter and slightly less touristy alternative nearby, though, there's also the gorgeous Seehaus Beer Garden, set by a big glassy lake which I can highly recommend for sunset. Now, let's escape Altstadt-Lehl and move over to the hip and student-centric neighborhood of Maxforstadt. If you exit the west side of the English Garden from this street, you'll be able to walk over to one of this neighborhood's most prominent landmarks, the Siegestore, a memorial arch originally dedicated to army glory, today dedicated to peace. This is mainly just a photo opportunity, but it's worth noting that the buildings around here mostly belong to the Ludwig Maximilians Universität, one of Germany's most prestigious universities. At Geschwister Schauplatz, in front of the main university building, you'll see a memorial dedicated to the White Rose Resistance Group, an anti-Nazi resistance group run by LMU students. In their memory, you now see bronze replicas of their leaflets embedded in the square's cobblestones. If you want to learn more about this group, the university does actually have a little-known permanent exhibition inside that is fully dedicated to them, so be sure to check that out. Another prominent feature of this neighborhood is its number of amazing museums, especially in the Künstlereal district, which is home to 18 museums and exhibition centers and over 40 galleries. Needless to say, you have tons of choices, but if I were you, I'd time my visit for a Sunday if possible because many museums in Munich offer one-year admission specifically on this day. There are a ton of museums to explore here, so I'll just outline a few highlights. One must-see for sure is Königsplatz, a gorgeous square filled with cool neoclassical monuments, including a huge city gate, the Glypothek, which is home to an impressive collection of sculptures, and the Bavarian State Collection of Antiquities. Another nice highlight right by here is the Lennbachhaus, a modern and contemporary art museum, which I honestly love mainly for its gorgeous garden. While the museum requires a ticket, the garden is open to the public for free, so be sure to pop in for a look. A short walk from Königsplatz is the fascinating NS Documentation Center, which explains the rise and fall of the Nazi Party, established right here in Munich, through several floors of photos, documents, and quotes that shed light on this dark but important piece of the city's past. If you're interested in Munich's Third Reich history, this is definitely a must visit. If art is more your speed though, three of the main museums in this neighborhood are dedicated to just that, the three Pinakotheks. There's the Alte Pinakothek, which covers art from the 14th to 18th century, the Neue Pinakothek, which covers European art from the 18th and 19th centuries, and the Pinakothek der Modern, which covers modern art. This one is my favorite, with fun, bold, and strange exhibits and cool installations in the courtyard, like this UFO-looking Futurohaus. And while not very extravagant, the St. Boniface Abbey can be found here as well, and is notable because it contains the tombs of King Ludwig I and Queen Teresa of Saxe-Hilberghausen, a royal couple whose legacy is still celebrated today because it was their wedding that actually marked the very first Oktoberfest. Now, after all that sightseeing, you might want some ice cream. In that case, make sure you visit der Verrückte Eismacher, known for its Alice in Wonderland aesthetic and inventive rotation of ice cream flavors, which includes Bavarian treats like Augustiner Bier and some really weird ones like sauerkraut. Their original location can be found just behind the main LMU building. They also have a second one now in the Ludwigsvorstadt-Isarvorstadt district, which makes a great segue because there's a lot more to do there as well. The first is, of course, to get your geek on at the Deutsches Museum. If you have the time, the Deutsches Museum is one of the largest science and technology museums in the world, and a very cool stop for science geeks and curious kids, although it does take some time to get through, so I wouldn't necessarily prioritize it unless you're really into science. While here, you can also explore the Glockenbachviertel, one of the most vibrant districts in Munich, known as the epicenter of Munich's LGBTQ plus scene. As well as the go-to spot for cool bars, cafes, and food spots. This is a pretty ideal place to grab lunch or a coffee, so again, be sure to consult my free map for food recommendations. Another interesting site near this neighborhood is the Theresienwiese, the world-famous site of Oktoberfest, though be warned, it's very empty when no festival is happening. You can climb up the Lady Bavaria statue though, and there's often other events that happen here during other times of year, like the Frühlingsfest spring festival and winter tollwood, which happens during the holiday season. Now just a short walk away from the Lady Bavaria statue, you'll find a unique photo op outside an office building of all places, the infinite staircase known as the Umschreibung. This beautiful piece of public art is over 9 meters tall and leads nowhere, but hey, it's pretty cool to look at. Another must-do in this neighborhood is a walk or picnic along the Isar river. This is where you'll find all the locals hanging out once the weather gets warm, with special grill zones along the river that are perfect for summer barbecues. Now at this point we've addressed most of the main must-sees in the touristy heart of Munich, but there's of course a lot more to see and do once you venture outwards, which is easy thanks to Munich's compact size and excellent public transport. While many parts of the city are residential, there are still some nice neighborhoods and pockets to explore, so I'll go through them now. Let's start with the iconic Munich Olympia Park. As suggested by its name, this park was built for the 1972 Olympics, with futuristic structures that feel worlds away from the historic buildings of the old town. Today the park continues to be a central hub of activity, with loads to see. The Olympiasee for instance is a lake that is lined with Munich's own little walk of fame, with handprints and signatures embedded into the ground from famous celebrities. There's also the Olympic Tower, which has amazing views and a rock and roll museum at the top, attractions like the Sea Life Munich, and for those interested in it, the Olympic Stadium is actually open for visits as well, where you can climb the unique roof or even go ziplining. Honestly though, some of the best things to do here are free, like admiring the iconic BMW headquarters building, enjoying the amazing view from Olympiaberg, or indulging your inner car and motorcycle geek at BMW World, a massive interactive showcase for the BMW brand, where you can look at all their cars, get inside them, hop on some motorcycles, and even, if budget allows, indulge in one of the most expensive fine dining experiences that Munich has to offer, at the top floor restaurant. If you're really into BMW, you can also pay a visit to the BMW Museum, for a more thorough walkthrough of BMW history through vintage cars. Now, a unique place to visit in this park as well is the charming Olympiadorf, and yes, I am biased because this is the first place I lived when I moved to Munich as a student. Long story short, this is where athletes lived during the 1972 Olympics, since converted into student housing, where students live in small cube houses called bungalows that they're free to paint however they wish. This, over the years, has created an amazing array of colorful and artistic facades on each house, with nods to pop culture, inside jokes, and more. It really is a special place. Though do remember that at the end of the day, this is a residential area, so please be respectful if you come by. Not too far from here as well is one of the quirkier spots in Munich that I feel like nobody talks about, so I'll just mention it really quickly. Located near the Olympia Einkaufszentrum U-Bahn stop is a very unique curved basketball court that serves as an interactive piece of public art that you can actually play on, sort of random, but really cool. Next, let's talk about a gorgeous gem northeast of the city center, Schloss Nymphenburg, or Nymphenburg Palace. Once upon a time, Nymphenburg Palace was the go-to summer residence of the Bavarian royal family. Originally commissioned in the 17th century, incoming royals kept adding, building, and spending, turning the palace and park into the sprawling estate it is today. Besides marveling at the gorgeous palace, whose width exceeds even that of Versailles, visitors can buy a ticket to explore the gorgeous inner rooms, go for a walk on the extensive palace grounds, visit the many on-site museums dedicated to everything from carriages and porcelain to nature, go on a pricey but romantic Venetian gondola ride, and even visit the Munich Botanical Garden. Not far from here, you'll also find Hirschgarten, which is the largest beer garden in Bavaria, with over 8,000 seats and some special guests, deer. Just as its name, which translates to deer garden, implies, this beer garden is famous for its friendly set of deer, who graze and frolic just steps away from where you can enjoy a delicious lunch of classic Bavarian eats and drinks. Be careful though, it's very easy to lose an entire afternoon here. Next, here's one for football fans. In the northern part of the city, you'll find the iconic Allianz Arena, home of course to the world-famous Etze Bayern Football Club. If you manage to get tickets to a game, that's no doubt the best way to enjoy the stadium's atmosphere. But you can also book a stadium tour as well. Now in terms of pretty neighborhoods to explore, one of my personal favorites is Schwabing, a historically artsy and bohemian district that doesn't have many landmarks or tourist attractions, but is an architecture lover's dream thanks to its high density of Art Nouveau or in German, Jugendstil mansions. If you're looking for a pretty and quiet neighborhood for a stroll, this is it. Another one of my favorite places for this purpose is Heidhausen, a village-like neighborhood that is filled with picturesque streets and beautiful squares, like its central square, Wiener Platz, which is surrounded by cute fairy tale houses, a leafy beer garden and charming boutiques. A peculiar highlight of this district is while here, you can even watch the Rocky Horror Picture Show at a Guinness World Record holding cinema known for having shown it every week for the past 30 years. You can head to Museum Lichtspiel for this bizarre honor. Just outside of Heidhausen, in the swanky Bogenhausen neighborhood, you'll find one of Munich's most recognizable landmarks, the Friedenzingel, Angel of Peace, marked by a 38-meter high Corinthian column topped with a not-so-subtle golden angel, representing, of course, peace. More notably, though, there's an incredible sunset view here from its terrace, as well as some cool, colorful murals in the tunnel below. Now, switching to a completely different vibe, another cool area to hang out on this side of the river is the Werksviertel Mitte, located just behind Ostenhof train station with lots of cool murals and unique small businesses housed in shipping containers, as well as the Uma-Dome, a large ferris wheel that offers faraway views of Munich's skyline. To be honest, I always thought this was a weird place for it, since the surrounding area isn't the most scenic views-wise, but hey, just know it's there if you're looking for something more unusual to do. Further south, there's another pretty neighborhood that's great for a walk, Untergiesing. Some highlights here include a lovely rose garden by the Isar, lots of cool street art and large-scale murals, the whimsical hangout spot Gansvollanders, which looks like a fairy tale house, and the neighborhood's own little Venice, though don't get your hopes up because it's just a little stream with some cute houses, but it's nice nonetheless. Across the river from here, you'll find two of Munich's more alternative venues. Bonfeuille-Tetiel is a hip hangout spot that hosts various parties and events throughout the year, with different bars scattered across a large venue decorated with repurposed shipping containers and structures, plus tons of graffiti. And there's a lot of fun to do here, and the MS Uting is literally an old boat perched on a bridge that is now a hangout spot where you can get plenty of food and drink. Fairly random, but the atmosphere here is always pretty cool. Further west, another beautiful gem of the city is Westpark. If you want a calm, nature-oriented escape, then this is a beautiful part of Munich to explore, so long as you don't mind venturing a bit far out of the city center. There's plenty to enjoy here year-round, from fall foliage and spring blooms to outdoor movies and a beautiful rose garden in the summer. P.S. Make sure you don't miss the Thai temple, Japanese garden, and Chinese garden. They're truly some of the prettiest spots in the city. Finally, if time allows, one thing I can definitely recommend doing is a day trip out of the city. There are so many possibilities with public transport, whether you're looking for fairytale castles, gorgeous lakes, iconic film locations and film studios, or even the highest peak in Germany. Now, needless to say, this video only scrapes the surface with what there is to do in Munich, so be sure to check out the written version of this guide for a full list of things to do, plus a map that details all the places discussed in this video. Thanks so much for watching, I'll see you next week. Bye!</t>
+  </si>
+  <si>
+    <t>Today we are in Munich, Germany and we are doing what is my favorite thing all throughout our travels and that is a food tour. So today we're going to be trying all kinds of German foods as well as Bavarian foods. So Munich is in the German state of Bavaria and so there's a lot of like specialties to the Bavarian state here. We just spent the past week in France where the cuisine is very different. So we're really switching it up today and we're starting by going to a bakery for breakfast to start our day out with some traditional German sweets. So our first stop of the day is Cafe Frischat, hopefully I said that right. It's a very beautiful old bakery that's actually celebrating its 50th year of its current owner right now. So lots of history and it's a favorite stop for breakfast here. What they're known for actually is what I got, which is the schmaltz noodle. And what the schmaltz noodle is, is a big flat donut. There's no hole in it, but it's very light, very flaky. It was also really fun to watch because while we were in the shop, they were actually making some of them, so they were kind of spreading out the dough and getting it ready to put in the deep fat fryer. And that is right at the front of the shop. So when you go in to order your treat, you can enjoy it. There's two options there. You can either do takeaway, which is what we did, or you can do sit down. The sit down options are more expensive, which is why we opted just to grab them and find a little park bench to enjoy them at. So without further ado, I'm going to try the schmaltz noodle. That is so good. So it has a very crunchy, golden outside, a doughy middle, very flaky inside. It would be so good with a hot cup of coffee right next to it or to even dunk in it. I think would be really good. Very German way to start the day. Really yummy, too. I have a Krapfett. So these became very popular in Germany after there's like more and more sugar imports from the Caribbean. Before then, like sugar was far too expensive. But after those imports started coming from the Caribbean, they were able to use more sugar in their different bakeries. And so what a Krapfett has is it has like all the granulated sugar on top. Then on the inside, there is always like a jam or a jelly in it. So these are actually referred to as Berliners across the rest of the country, but here in like Bavaria and in the southern parts of Germany, they are just referred to as Krapfetts. And they can also even be known as Bavarian donuts. So a couple of different names for the pretty much the similar tree. First bite and I completely missed the jelly. All right, so it looks like it's all on one side, but it is still warm and absolutely delicious. Another great way to start your morning on the sugary side of things, but that's OK when you're in Germany, right? Outfit of the day. Should I do it? It could be cute, right? How much? Oh, not for one hundred and sixty nine euros. They're not that cute. Oh, but I'll find this one. So we are now at a little market that is in the heart of Munich, this market, which I cannot pronounce all of the name down below, it's open every day of the week except on Sundays, and it's such a good place to walk around and try so many different foods, everything looks incredible. But what we are trying today at the market is the Bavarian pretzel, also called the Bretzel, probably the most famous thing to get here when you're in Bavaria, this is different than like American pretzels because it's denser, thicker, chewier. We also have a really big granules of salt on the outside. And of course, people love to have them with beer. What goes with it better than that? Just going to try one here. I'm really excited. It's very crispy and crunchy. So where we picked out our pretzels is Carnals, which is a little stand behind us here that's been open since the 70s making pretzels, so 50 years of a pretzel deliciousness. So before we continue on for our lunch stop right here behind me is the Rathaus Glockenspiel. It's a very famous clock here in Munich and it's supposed to start ringing in about five minutes at noon. So we're going to wait here for that and then go find some lunch. So we're just a couple of blocks now from the Rathaus Glockenspiel. We're at a place called Schneiderweiss. It's a place that has a lot of traditional Bavarian classics and it has a beer history of brewing beers for hundreds of years. So it's a very classic place to go grab lunch. So what I got was a potato soup, actually, that has vegetables, marjoram, bacon, and of course, potatoes. And it smells really good. It also has some chives sprinkled on top. It's a very warm, cozy, homey type of dish. Some chopped up vegetables inside, some really nice spices, really good start to our lunch. So for the rest of our lunch, we have some sausages served with sauerkraut and then some mustard. And over here we have pork knuckle or Schweinehexe, as they say in German, I believe. So pork knuckle was actually like kind of started as like a peasant's food. One of those cuts of the meat that, you know, is not prime, a much cheaper option. And then today it's served in a very thick, dark brown gravy as seen here, along with what I believe is some potatoes. And then to wash all that down, we also have a beer. Generally not a big beer drinking guy, but it does feel very wrong to go to a brew house in Germany for lunch and then not also order a beer. So that's why we have that. Time to dig into the first part of this, which is the sausages and sauerkraut. Going to try and get a forkful of the sausage, the sauerkraut, and a little bit of mustard here. I feel like they do mustard so well here. I've never been a big fan of mustard, but every mustard I've had here in Germany or Austria so far has been amazing. Now onto the main dish, the other two are just kind of like the appetizers. But this, this right here is where all of the meat is coming from. The biggest dish, the gravy on this is so good. First few bites of this, absolutely delicious. The gravy is what really just does it for me. It's got such great flavor. But like I said, the pork knuckle itself actually has a lot more meat on it than I was expecting. So that's a great added bonus. Originally, I thought this was just like a side of mashed potatoes. However, what it actually is, is like a potato dumpling. So there's actually like a lot of wheat mixed into with the potatoes to make the dumpling. And so it's just like a very different consistency than just mashed potatoes, much more sticky. I really like it, especially when it's mixing with like the Schneider wheat beer gravy that was served along with the pork knuckle. And then on top, there was also some like breadcrumbs served along with it. So a very good side to the pork knuckle. All right, so next up on our food tour is Currywurst. And once again, this is a very heavy dish. Currywurst was said to be invented by Herta Hewer back in 1949 in Berlin because she was serving it on the street to construction workers. So it's like a very filling, hearty meal for the construction workers as they were rebuilding Berlin after World War Two. And now it's still enjoyed all around the country today. It usually is like a fast food option. And so today we actually went to like a fast food chain. It's called Pommes Fruita. And they bring in like all the best. So they bring in the best burger from Chicago, the best hot dog from New York, the best fries from Belgium. And then, of course, the best Currywurst from Berlin. So that's where we stopped to grab this. And we just walked to a nearby park. Time to give it a try. You can definitely taste the curry in that sauce on top of it. It is very good. And I can definitely see why this would be like such a great lunch option, especially if you're like kind of in a hurry or you just want like a lot of calories very quickly, because this right here, this is just packed very heavy and would definitely fill you up, especially if you're working like a very manual job, such as construction, even though it's called Currywurst. I was not expecting it to taste nearly as much like curry. You could really taste the curry in it. But now we're going to go spend the next several hours kind of walking around, relaxing and just trying to work off some of all this heavy food before our supper. So for our supper stop, we're at Mütterstuben, another restaurant that has a lot of Bavarian classics. So I started off with an appetizer. And what this is called is Obatsta. And what is in this tasty little appetizer dish is double cream camembert, cream cheese, butter, onions. It looks like it's garnished with a lot of vegetables for this specific one. But you can kind of see the creamy ball of deliciousness under there. And then it is served, of course, with a pretzel. We've got the classic pretzel and we're just going to dip it into the Obatsta. This is one of the top dishes I've been wanting to try here. Here we go. Wow, you can taste there's a lot of butter in there, a lot of cheese, which would also be a great pairing with a beer and with all your meat and the other dishes that you have. Really yummy start. Very filling, too. I always appreciate some fresh vegetables where we can get them to our travel diet is probably not the most wholesome, so got to get your veggies in there, too. All right, so for our main dish tonight, we are going to have some schnitzel. Now, we've actually already had some schnitzel in Austria. However, that was called the Vienna schnitzel. It's kind of like the main Austria version. And then this version, I think it's just kind of like an in-house like recipe or style, it's called a brewmaster schnitzel. But what it is, is a piece of pork loin that is covered in fried onions. And then, of course, served with some more malt gravy and then on top of cabbage and some potato dumplings. It looks absolutely delicious. And one of my favorite parts about this is when I was having schnitzel in Austria, I always thought it was like kind of dry and it needed like a sauce. And so for this one to come with a gravy, I'm a big fan of that. The schnitzel itself is like a thinly pounded out meat. But then what's special about this version as well is there's actually like cheese and ham stuck in the middle of it. So if you open this up like I am here, you see the pork and then you also see like the slice of ham and the cheese on the inside. So very unique to take on the schnitzel again. Big fan of that gravy, definitely like makes it much less dry. This is another one of those very hearty dishes where it's just a lot of meat with potato dumplings, the cabbage, just the gravy, just everything. OK, thank you. And our dessert just got brought on. So it's quickly time to devour this because that dessert looks delicious. And we got to try that next. So this amazing looking dessert is called Kaiserschmarrn, which means emperor's mess. When it was named after Franz Josef I, who just happened to absolutely love this dessert, what it is is basically shredded up pancakes that has caramelized rum on it. This one also has almonds. We have raisins. We have some applesauce. It looks like maybe some plum as well. Strawberries, fresh berries, powdered sugar all piled up and served warm. And here it is made fresh. So it took about 20 minutes to prepare. So it had a little disclaimer on your menu that you have to order it ahead of time because it is made so fresh. But how incredible does this look? I'm so excited to dig in. That is so amazing. It's like caramelized pancake, powdered sugar, the berries. It's so sweet, but not overly sweet. Just really delicious. And it's served warm. It's such a cozy dish. I'm going to stop torturing Jordan and let him try it. I think I'm most excited for the applesauce that comes along with it, but we're going to try a little bit of everything. So just kind of like a bite of just the plain pancake was very good. Did not disappoint. Now we're going to try some pancake with the plum. Not a huge fan of that one, but on to the applesauce. Here we go. Little pancake, little applesauce. That apple is where it's at. It's honestly kind of incredible. I know we've been saying this all day long, but like even this dessert is like a heavy dessert, which is honestly just so shocking because it's like a fruity dessert, like usually the fruity desserts are like a little bit lighter than the rest of them, but this one will not like overly sweet. It is still a very heavy dessert that we're going to have to try and eat all the way through. This might be a challenge for us. This concludes our food tour in Munich. And since we had already spent some time hiking in the Bavarian Alps, it was time for us to head to our 35th country, which is the Netherlands. So thank you so much for watching. And please subscribe if you haven't already so that we can see you in the next one in Amsterdam.</t>
+  </si>
+  <si>
+    <t>Witamy na naszej kolejnej podróży! Dzisiaj wybieramy się do Bawarii. Jedziemy zobaczyć zamek Disneya, a następnie zwiedzić Monakium. Zobaczymy. Bawarka to faktycznie narodowy napój bawarczyków. Chciałabym zdać sobie tajemnicę. Dzisiaj dostajemy nowy Audi A3 w wersji sportowej. Dzień dobry! Nie ma to jak wstać o 6 rano, żeby pójść coś zwiedzić. Tam brzewki, poranek. Ale w sumie wyspaliśmy trochę, bo byliśmy spać o 1, wstaliśmy o 6. A teraz idziemy na śniadanie. Do Bakery! Teraz zwiedzamy ten zamek żółty z zonami, a następnie zwiedzamy ten zamek, który widać tu na filmie. A wcześniej będziemy zwiedzać ten. W pakecie oba były w dobrej cenie. Jak Wam się podobał pierwszy zamek? Generalnie nie pozwolili nam robić zdjęć. Musimy tylko skomentować, że było pięknie. Niesmak pozostał. Teraz idziemy gdzie? Do Szwanstein. Prawie już doczekaliśmy się na naszą kolejkę. Tutaj jest zegarek, który pokazuje, kiedy można wejść. I Martin, za ile wchodzimy? To szybko, 5 minut. Czy macie takie poczucie, że ten królewski zamek Was troszeczkę odmienił? To była królewska uczka prawdziwa, kocieczka po zamku. No, zobaczymy zamki. Zamki były zwierzami. Jak się nazywały? Tamten jest szwań, to jest świnopas. To był zamek świnopas? Tak. Jak na zamek świnopasa, to trochę miał kabony. W każdym razie przepych, ale złoto, marmur, marmur z Włoch. Chyba trzy zamki, czy cztery zamki. No miał trochę hajsu chłopaki. A teraz jedziemy i za 130 kilometrów będziemy w Dachau. Jak zdążymy, bo plan jest bardzo napięty, Dachau zamykają o 5. Mamy godzinę drugą. Jesteśmy w Dachau. Dotarliśmy po niedługiej podróży, bo to nie jest tak super daleko z tego miejsca, w którym byliśmy poprzednio. Poszliśmy tak dosyć szybko, też nie mieliśmy dużo czasu, żeby zobaczyć wszystko. Znanie tej całej historii i tego, co się tutaj dokładnie działo, byłoby niezwykle ciekawe. Jak każde miejsce tego typu daje dużo takich przemyśleń, które gdzieś tam się pojawiają. Zwłaszcza na temat natury ludzi. Natomiast tu w obozie koncentracyjnym to było po raz pierwszy takie zmasowanie na ogromną skalę mordy. No i po raz kolejny odwiedzenie takiego miejsca potęguje myśli, co możemy zrobić, żeby takie sytuacje, takie mordy nie powtarzały. De facto nie minęło aż tak dużo czasu, żeby można było powiedzieć, że ci ludzie, którzy dokonywali tego, co tutaj się działo, to jest jakieś takie myślenie, które już w ogóle nie występuje w naszych społeczeństwach. I to jest najgorsze. Napisy stworzone przez społeczność Amara.org Wierchun dobiega końca. To już ostatnia chwila tego pięknego dnia. Uważam, że dzisiaj naprawdę zrobiliśmy niezły plan. Zaczęliśmy o 6 rano pysznym śniadaniem. A kończymy 17 godzin później pysznym dniem. A znowu pyszne pijanie. No i tak dalej. Wierchun dobiega końca. To już ostatnia chwila pysznego pysznego piwka. I odpłyniemy do objęcia murów. Opuszczamy hostel. Ostatni dzień wycieczkowy dzisiaj dla niektórych. A dla niektórych? Nie. Nie. Martin z Monią podwożą nas kawałek do miasta. I idziemy na free walking toury. A Martin z Monią udają się do nowego dworu mozowieckiego. Dzisiaj my mamy zaplanowane 6 godzin ułożenia z przewodnikiem. Zobaczymy czy damy radę. Jesteśmy po pierwszym free walking tourze. Było bardzo ciekawie. Poznaliśmy historię Monachium. I teraz idziemy do Ogrodu Pagliwskiego. A później idziemy na kolejny free walking tour. Tym razem o takim panie Adolfie i o jego tam poczynaniach na początku XX wieku. Ogród Pagliwskiego Ogród Pagliwskiego Dzisiaj zdecydowanie był dzień z III Rzeszą i z historią III Rzeszy. Free walking tour odnośnie III Rzeszy naprawdę bardzo ciekawy. Inne spojrzenie też na historię i na to co się zdarzyło z perspektywy miejsca w którym to wszystko się rozpoczęło. A bardzo ciekawy muzeum to tutaj w dokumentacji narodowo socjalistycznej. Warto też zobaczenia. Bardzo dużo ciekawych materiałów, które rzucają też troszeczkę inne spojrzenie na wydarzenia sprzed 100 lat. I tak dotarliśmy do końca naszej wycieczki w Monachium. Myślę, że jakby ktoś się zastanawiał czy przyjechać do Monachium czy nie to jest mega warto. Chciałem jeszcze powiedzieć, że moja żona jest mega zuchem, kiechurem i wycieczkowiczem. Uwielbiam z żoną wyjeżdżać wszędzie.</t>
+  </si>
+  <si>
+    <t>Hello there! If you want to travel to Munich, watch this video to get all the information and tips you need to make the best of it. Let's go! What are the most important sights? What makes the locals tick? And when is the best time of year to travel to Munich? In this video, I'll show you all this and much more. I'll explain the do's and don'ts of Oktoberfest and what you need to know when visiting a beer garden. But first, a few basics. Where is Munich located? Munich is the capital of the state of Bavaria and is located in the south of Germany. It's home to around 1.5 million people. From Munich, you can quickly reach the Alps, where you can go hiking in summer and skiing in winter. Before we talk about the main sights, let's take a quick look at the weather. So, when is the best time to come to Munich? Well, it depends on what you want to do. In summer, you can walk around in shorts and a t-shirt. Some days, it can get really hot. In spring and fall, be prepared to wear pants, sweaters and light jackets. In winter, temperatures can go below freezing and it can snow. So don't forget to pack warm clothes. I prefer to travel to Munich in the fall. Do you know why? Oktoberfest! In September and October, the largest folk festival in the world takes place on the Theresienwiese in Munich, with more than 7 million visitors recently. There are rides, lots of food and giant festival tents. Here are a few do's and don'ts. Wearing traditional costume is not compulsory, but you might feel left out if you don't. Women wear dirndls, men wear lederhosen. Don't overdo it with the alcohol. Otherwise, you'll end up on the so-called Kotzhügel or puke hill. Dancing on benches is allowed, but not on tables. Ok, and what about summer? There are also big events in Munich like the Kochalbahn, which takes place every year in July early morning from 6 to 10 a.m. at the Chinese Tower in the English Garden. Summer is also the perfect time to explore the city's beer gardens. You can bring your own food if you only want to buy a drink. One of the city's most popular parks is the English Garden. It's also one of the largest city parks in the world. Here's a tip. Watch the surfers ride the Eisbach wave and then jump into the river yourself. The current is so strong that you will be swept way across the park. It's a lot of fun. If you travel to Munich in early winter, late November or December, you will experience the wonderful Christmas season. The city is festively decorated and you can stroll through atmospheric Christmas markets. The carnival season takes place in February with parades and street parties. Don't miss the traditional dance of the market women at the Viktualienmarkt. To visit these festivals you're tied to specific days, but Munich's sights can be enjoyed the year round. Here are the highlights you shouldn't miss. Marienplatz is the center of Munich's old town. Next to it is the new town hall. And here's a tip. Get here at 11 or 12 o'clock, so you can see the Karelian. Just a few steps away you'll find the Odeonsplatz with the Theatinchurch and the Feldherrnhallerlodger. Right next to it is the Munich Residence, once the seat of the Dukes, Electors and Kings of Bavaria from 1508 to 1918. It's well worth a visit. A bit further away, but still within the city limits, you'll find the impressive Nymphenburg Palace. It was the summer residence of Bavarian rulers and is one of Germany's largest palaces. More on museums later. But here's a must-see for soccer fans. The Allianz Arena. Home of FC Bayern Munich, Germany's most famous soccer club. The legendary stadium holds more than 75,000 spectators. Its exterior facade has impressive lighting. If you want to go shopping, Kaufingerstraße is the place to be. It stretches from Marienplatz to Karlsplatz, also known as the Stachus. And what's the best way to get from one attraction to another, at least in the city center? You can do a lot on foot. But if you want to travel a bit further, you can rent bikes or e-scooters. Or take public transportation. Munich has buses, streetcars, subway trains and suburban trains. The network is divided into different zones. Check beforehand where exactly you need to go, so that you choose the right fare. Take a look at this. It's a little complicated. There is also a multi-journey ticket, which gives you more flexibility. With it, you stamp two stripes for one journey. For a short trip, for example two subway stops or four stops by bus, you only need to stamp one stripe. Munich also has its own airport. It's a 40-minute S-Bahn ride from the city center. You gotta weigh it up. Is it okay for me to travel longer staying overnight in a cheap hotel outside of the city? Or do I want to stay close to the center but pay more? Munich is relatively expensive compared to other German cities. As I said, if you want it cheaper, you have to look for something further outside or stay in a hostel. Holiday apartments, campsites or couchsurfing are of course also alternatives. Munich's most famous luxury hotel is the Bayerischer Hof. If you're into art, then take time to look at the Pinakotheks. They are among the most renowned art collections in the world. The Alte Pinakothek displays European paintings from the 14th to the 18th century. And the Pinakothek der Moderne is dedicated to art from the 20th century onwards. My recommendation, go to the museums on Sunday. Entry costs only one euro. Otherwise it will set you back about 10 euros. The Deutsches Museum is also a must. It is one of the largest science and technology museums in the world. When in Munich, it's very important to try the local cuisine. My tip, go to Munich's famous Hofbräuhaus. Here you can enjoy Bavarian cuisine and beer accompanied by Bavarian music. The food is usually hearty. You'll find snack platters, white sausages with pretzel, pork knuckle and Käsespätzle like cheesy noodles with roasted onions. Festivals, sightseeing, food, transport, accommodation, museums, you're all set up. But what's missing? Well, the Munich people of course. Munich embodies Bavarian coziness. This is expressed for example in the beer garden culture, the hearty food, traditional outfits and of course brass band music. The Bavarian dialect can even be difficult for some Germans to understand. Here are some Bavarian phrases to help you. I'm not from Bavaria myself, but I'll do my best. I'm not from Bavaria myself, but I'll do my best. Griaß di is like a hello. Fierti is goodbye. But you can also say Servus for hello and goodbye. That's easier. Hähnli is a fried chicken. Mass is one liter of beer. And if you're tipsy, a little bit happy, then you have a so-called suri. I hope all my recommendations were helpful and that you have a great trip to Munich. Servus, fierti and goodbye.</t>
+  </si>
+  <si>
+    <t>You're planning a trip to Munich? This video is the only guide you need. Explore the best of Munich, eat typical Bavarian food and go shopping with me. Hello hello and welcome to 24 hours in Munich. We start our city tour only a couple hundred meters away from the main station at the famous Karlsplatz or also known as Stachus. This square along with the Karlsdorff Gate marks the entrance to the historic old town with Munich's most important sights and lots of places to shop. The gate was originally built around the 1300s and rebuilt after the Second World War. It's time to make our way through Kaufingerstrasse, the almost one kilometer long shopping street. Only a few meters to the left there is the famous Oberponinger, the biggest shopping mall in southern Germany. Come and have a look inside this luxury store and if you want to know the best places to shop in Munich then you should watch this video here right after. At first we need to get a breakfast snack because we're pretty hungry right now. So let's walk a little further down the street. Beside the little food stands for sweets and fresh food there's also a bakery. Well, one of the stores of a local bakery chain, Rischat, which are all over the city. Wow, everything looks delicious. Try one of the many sorts of cake or get yourself some savory bread to go. Hard to decide, right? I can only recommend to try a Brezen. It can't get any more Bavarian than that. So enjoy! For all my art lovers, have a peek into the Kunstsupermarkt. The variety of painting styles is amazing. Or how about some typical knickknacks for a souvenir? Speaking of souvenirs, you might want to check out this three-story FC Bayern store. And our next famous stop is right here, but it doesn't even fit in the picture. It's Munich's landmark, the Frauenkirche. Turn to the left or simply look up to the 97-meter-high Twin Towers to make your way to the church. It's impossible to miss it. Personally, I think of course you should have seen this important piece of history, but if you're looking for a more spectacular interior, stay tuned for later, because then I have just the right place for you. And since we're in Munich, let's take a look at some of the most famous buildings in the city. And if you're looking for a place to spend the night, I highly recommend to check out the Frauenkirche. And since this is Munich's gorgeous city center, one sight follows the next. So here we are at the world's maybe most beautiful city hall right at the Marienplatz. Fun fact, no matter if you're a tourist or a local, when the lighting is pretty, everyone takes their pictures of the city hall. That's how nice it is here. But that's not it. Every day at 11 in the morning, at noon and in summer times at 5 in the afternoon, you need to listen and look up. Why? It's time for the famous Glockenspiel. These little figures here spin and twirl while making music. Glockenspiel music Also, it's worth having a look into the city hall's courtyard because there is a hidden little beer garden. Glockenspiel music We are now leaving Marienplatz and turning to the right to a huge market, the Viktualienmarkt, which is open Monday to Saturday until 6 or 8 pm. Feeling hungry? Get yourself something from one of the many butchers to go. A great option if you're on a budget, since you can get everything which fits onto a bread for 2 to 3 euros. And there are lots of sausages to choose from. Yummy! Glockenspiel music By the way, if you enjoyed this video, make sure you hit the like and subscribe button for more tips. Glockenspiel music And another tip for a super cute souvenir is this little store. Come on and check it out! You can even make your own Bavarian dip at home with these spices here. Glockenspiel music Okay, let's get something to drink because hydration is important and we need to move on to the next spot. It's a little walk but a pretty one, so take your drink, enjoy the scenery and arrive super chill at Odeonsplatz. Glockenspiel music So, this square has so many interesting buildings, I don't even know where to start. Maybe important for you to know, there's only one cafe super close nearby, so it's good that we already picked up our food and drinks. All these buildings here are influenced by Italian architecture, as you might have already noticed. Besides this hall here, built to honor the Bavarian army in 1844, there is my favorite church. It's not only in this cool and unusual yellow, all the white interior is super detailed and breathtaking as well. Glockenspiel music While you're at Odeonsplatz, definitely check out the Hofgarten with its pretty little dome. Glockenspiel music If you stay in Munich for longer, you can even stroll around the English garden, something I will show you in one of my next videos. But only to let you know, you can go surfing there! And only a few meters away, there is another hidden gem. Glockenspiel music These buildings are not only nice to look at, the real treasure lies inside. Because this huge building to the left once was the residence to Munich's monarchs and rulers. Get your ticket for 9 euros and make your way through the 190 rooms of the residence. You can also get an audio guide, but in my opinion, this would take way too long and there are info boards across the rooms if you want to educate yourself. You should plan about 2 hours for the whole residence, but it's also possible to take a shortcut. Okay, let's enjoy this little tour for a moment. Glockenspiel music Look, this whole arrangement of statues is made out of shells! Amazing! Glockenspiel music And here we have FC Bayern's first Champions Bowl. No, just kidding. Glockenspiel music Before we head to dinner, you need to check out Maximilianstraße. Be it for window shopping, getting some luxury fashion or glancing at sports cars. You can always find something interesting here. Glockenspiel music In the evening, this area gets especially nice when everything is lit up. Quite often in the warmer months, there are events and concerts all around the residence and Odeonsplatz, so make sure to check out München.de for upcoming events. Glockenspiel music Dinner time! We now need something extra tasty to recharge our batteries from all the walking, right? So let's get ourselves some warm and traditionally Bavarian dishes. But please do not go to Hofbräuhaus. Even though it's super famous, the food is not that good and you can get better value for your money. For example, at Einger am Platzl right next to it. Glockenspiel music You can find many Germans and locals eating here and the atmosphere is just cozy. Glockenspiel music Even though Bavarian cuisine means lots of meat, you can get vegetarian options. But today I got myself some roasted pork with a super crunchy skin and a side of potato and bread knödel and some kind of coleslaw. So, so good! Cheers! Guys, we are already at the end of this video, so if you enjoyed watching, please hit that like and also subscribe button for more videos to come with tips and tricks for your Munich trip. Thanks for watching, take care and see you in the next video. Bye!</t>
+  </si>
+  <si>
+    <t>Hey there, fellow travelers, Mark here with Wolters World. Today we are in Munich, Germany, in the heart of Bavaria. And this is a fantastic place to stay, a great place to explore and do lots of things when you are here. But today we're not going to talk about the things you do do when you're here in Munich. Today we're gonna talk about things you don't do when you're here in Munich. All right, so let's get started with the don'ts of visiting Munich. Now the first don't I have for you is don't assume that Munich is just the Hofbrauhaus beer hall, big leader beer culture. Look, Munich has got so much more than just a beer house. Yes, they are totally fun. And you should go and have your mas, your stein of beer and drink that up and have fun. But realize that Munich has an amazing collections of museum and tourist sites. Here, the Alte Neue and Modern Pinotek, the art galleries that are here, you have the residents, the summer or the winter residents of the Bavarian Kings, you get the Nymphenburg Palace that's right outside of town. There's all kinds of great museums here, BMW Museum, there's the toy museum, the Deutsches Museum, one of the best science and industry museums in the world is here in Munich. So yes, there is beer, but don't think it's just beer here. You get beer and culture. Okay, now my second don't for here has to do actually with those beer halls. Look, don't try to steal one of the big beer signs, the masses when you're in the Hofbrauhaus or those other places, because they watch, they know, and they will come get you. And you don't want to deal with the cops or the security guards late at night in those places. Just, you know what, they actually sell the beer signs, the big beer mugs at the at the Hofbrauhaus and at Augustin and all these things. So you can just a beer mug that way. So don't steal it because you will get in trouble for that. Okay. And following on with that, our third don't is don't think that the Hofbrauhaus is the only beer hall in town. There are a lot of beer halls around town. And you can go and explore different ones and enjoy different ones out there. If you want more of a calm setting to go and have dinner like where I go and have dinner with my mom, when we come here, we go to the Augustina brew house and we go there for dinner and we have our beers and stuff like that. But just know, Hofbrauhaus is super touristy, yes, but don't think you just have to go to that one because there are a lot more here. Now our fourth don't for Munich is don't think that Munich is going to be a cheap vacation. Now overall, Germany has a lot of great deals and there are great deals to get here in Munich, like the buy-in ticket, you can go all over Bavaria for a really good price. But in general, hotels, restaurants, staying here, shopping here, Munich is actually quite pricey. So do be prepared when you come here and don't forget to bring cash because they like cash better than credit cards. Okay, now our fifth don't for you is don't be scared of the public transportation, because the public transportation, the S-Bahn, that's the above ground kind of trains, the U-Bahn, the subway, the buses goes all over the place. So you can go and enjoy the Nymphenburg Palace, you can get out to the Englischer Garten and things like that. Easy, easy, easy with the subways and with all these things, because I know some people may travel like, well, Munich is so compact, you can see a lot of the sites really close to each other. Yeah, the residence is here, the Pentateuch are over there, the Glockenspiel at the New Town Hall, Rathaus, Neues Rathaus is right over there, and you can walk everywhere. But don't be scared of that transport to go and explore more, because Munich really is more than just that historic center. There's so many great things to do here, whether you go to the Olympic Park, or you're going to go to a soccer match or football match when you are here, there is a lot more to that. So don't be scared of the transport, okay. And also the transportation is really easy to buy tickets and use. There's maps all over the place. So either you don't speak German, you'll be fine with it here. Now my sixth don't has to do with Oktoberfest, because I know a lot of people come to Munich just specifically for Oktoberfest. And don't forget that Oktoberfest isn't in October. Oktoberfest starts in September, and goes through the first weekend of October. So if you want to come, try to shoot for mid end of September to do that. And don't forget to reserve your rooms and a table in some of the tents. Because otherwise you might have a tough time finding a place last minute, and the prices really go through the roof then and they don't serve you beer unless you're sitting at a table at one of the Oktoberfest tents, okay. Now my seventh don't for you has to do with shopping, because Munich for me Munich and Hamburg and then Berlin are the best shopping places anywhere in Germany. And the thing is, if you're a tourist, you're traveling on the weekends and things like that. But unfortunately, you don't shop on Sundays. Look Sundays in Germany in general, most stores are closed. So you won't be getting too much shopping done then, unless maybe it's at the train station or a tourist shop. So if you are here for a weekend trip, get your souvenirs, get your stuff bought on Saturday, because Sunday, you're out of luck. Also on Mondays, not all of the museums are closed, but a lot of the museums are closed on Mondays. The residence though is open and one of the Pinot Texas open, but not all of them. So do be careful if you're here for a Monday, some of the stuff is closed. Now the eighth don't I have for you is one of those things that really frustrates me with tourists is if you go to Dachau, you know, the Nazi concentration camp, where lots and lots of people were murdered. Don't be an idiot when you're there. I've gone to Dachau and other concentration camps around Germany, other parts of Europe, and I've seen tourists doing their selfies. Oh, look, here's the gas chamber. And I see those things. I'm like, what the hell are you doing? Look, don't be a troll. Don't be an idiot. When you go to the concentration camp about here, Dachau, which is probably the most visited one for tourists because Munich is such a big place. So please have respect when you're there and don't be a jerk at the concentration camps. Now my ninth don't for you is don't just stay in Munich. Munich makes a great base and you can explore Bavaria really easily from here. And what's cool is with that Bayern ticket, you can go and travel all over on regional transport all around the state of Bavaria. And that is really, really cool because you have a lot of really cool places here. You can go to Nuremberg, the best Christmas markets in Germany. You go with the castle on the hill, the Folk Museum, all these kind of things. Or you go to Bamberg with a home of smoked beer or Regensburg to see the bridge there. Or you go to Oberammergau where they have buildings that are painted on the side and it's just like a winter wonderland you go in there the right time of the year. Or if you want to go to another country, you can go to Salzburg, Austria with the sound of music. It's not more than an hour and a half away on a local train. There's so many great things here. And oh, yes, there's that whole Neuschwanstein Castle, you know, the one that inspired Walt Disney for his Cinderella castle. That's by here too. So don't just stay in Munich, use it as a base to go explore all over the places because it really is a great place to do those kind of things. And the 10th don't I have for you is don't be afraid to come here outside of the summer. Look, I know a lot of people think, oh, Munich, that's like near the mountains and stuff. So it's gonna be cold and gross and rainy because Germany is just bad weather stuff. Look, if you come here in November, if you come here in October, you come here in the spring, and you come here in the winter, Munich is a year round destination, you can come and enjoy it anytime. Because of all the sites and all these kind of things. You don't need good weather to enjoy the residents. You don't need good weather to enjoy Neuschwanstein Castle. There's so much here. And honestly, if you come in the summer, the June, July, August, this place is packed. If you come here in November in the offseason, it's empty. We were in the residence today. Literally, we were in rooms, amazing rooms by ourself. Just what we had like 10 minutes just standing there. Wow, this is amazing. Just us. And you can have that kind of individual experience here in Munich when you do come in the offseason. Anyway, those are 10 little don'ts for coming to Munich. If you want to learn more 10 things that will shock you about Germany. Actually, we got so many shocks. We actually have two 10 shocks of Germany videos. Five things you love and hate about Munich, all those kind of things we have on our website at waltersworld.com. We're also on Twitter, Facebook, Instagram, and we really appreciate your likes, subscriptions. And if you want to get videos like this every week, we usually put out one or two or three, actually two or three travel videos every week. So do please click that subscribe button and do click that like button. And if you want to support us, click the support button, because we really do appreciate it all. And we hope you have a great time here in Munich. But though I don't think that'll be a problem. Ha ha ha. Anyway, auf Wiedersehen. Oh, and don't forget to learn a little German before you come. We got it really does get the Germans to really warm up and the best Germans, the nicest Germans really are here in Bavaria. They're great. Anyway, tschüss from Munich.</t>
+  </si>
+  <si>
+    <t>The capital of German Bavaria, Munich is a lively city with a modern and forward-thinking attitude combined with a historic appearance. It is known for its splendid architecture, especially the charming old town that has been reconstructed to appear almost exactly as it did at the end of the 19th century. Munich is a fun-loving city known for its seasonal festivals and rich cultural calendar. So along with visiting the beautiful churches and outstanding museums and palaces, you should spend some time enjoying life with the locals at a festival or a colorful market. Munich residents also enjoy their many public parks and gardens in particular. The lovely 900-acre English Garden. There's no need to lose tons of time planning your trip, though. We've created this awesome video of the best places to visit in Munich to help you out. Your travel planning will be a breeze, and you won't need to miss any of the hotspots in Munich, even if time is limited. Berlin-Marienplatz and the Neus Rathaus. Located in the Old Town, one of the oldest neighborhoods in Munich, Marienplatz was a market in the late 1150s. The whole Old Town area is a historical monument on the Bavarian Historical Monument list. While lots of the historic buildings were destroyed during World War II, the area has been rebuilt in keeping with its former appearance. Faraday-like buildings line the medieval-style streets, and it is home to many of the most famous places in Munich. The appearance is very different to many other cities around Germany, and visitors can spend several hours simply wandering around and admiring the pretty sights. Marienplatz is definitely an Old Town highlight. Stand in Marienplatz and marvel at the stunning and impressive New City Hall. The Munich must-see is a neo-gothic treasure, and you can take the elevator up the tower for splendid city views. Don't miss watching the delightful Glockenspiel in action with its charming dancing and jousting figures. Head over to the Old Town Hall at the other side of the elegant square and gaze up at the Marienzall Column, dedicated to the Virgin Mary. 2. Nymphenburg Palace, the summer home of the royal Wittelsbach family. This Baroque palace is not to be missed while exploring the Bavarian city. With lavishly decorated interiors and sumptuous period rooms, this palace, though regarded as not the best form of Baroque architecture, is yet quite impressive, as you explore the ground floor and first floor of interiors of the palace. Amidst antechambers and apartments, what is striking is the two gallery of beauties, one of Max Immanuel and the other dedicated to Ludwig. One of the portraits, Eres of Irish Lollomontes, Ludwig's alliance with her triggered the Revolution of 1848. The second floor is closed for the public since the Duke of Bavaria still resides here. It is said that the ideal time to visit the Nymphenburg Palace is during the summer months, When the garden is in full bloom and vivid hues, be sure to be devoting almost an entire day in exploring the several attractions in the palace complex or just spending leisure time in the park. 3. Wiktualienmarkt, Munich's best outdoor market is bustling Wiktualienmarkt, in the heart of the city's Old Town. Over 200 years old, it's one of the must-see sites in Munich, popular with locals and tourists alike. Round 140 beautiful stalls and shops selling everything from flowers and plants, fruits and veg, meat and Bavarian delicacies. Even the city's chefs fill their baskets with ingredients here. It's also a great place to stop for a coffee, bite to eat or a beer, as it has its own beer garden that can seat 600. You are never too far from a beer garden in Munich. The market is open Monday to Saturday from around 8 am to 6 pm. When the market grew too big in Marienplatz, King Maximilian I moved the market in 1807. It has expanded and grown over the centuries and is Munich's favorite shopping and gathering place. 4. The Olympic Park While many former Olympic venues around the world tend to be forgotten, Munich's 1972 Olympic Park is still a popular day out. The park is a massive activity center where you can ride a zipline over the iconic stadium, take part in water sports on the lake and ski on the hill in winter. There are also fairground amusements in summer and no lack of places to grab a snack or meal. The park has also witnessed some historic events, one grim, like the Munich massacre of 11 Israeli team members in 1972. And you can still visit building 31 where the Israeli team was staying. On a lighter note, the Olympic Stadium was also the scene of one of the most memorable World Cup finals in 1974 when Germany came from behind to defeat Netherlands by 2-1. 5. St. Peter's Church Munich is some of the most beautiful churches in Europe and one of the favorites is St. Peter's Church right by the side of Marienplatz. St. Peter's Church is a Catholic church located in Munich's city center. St. Peter's Church was started in the 12th century and is the city's oldest church. It was rebuilt and renovated several times following the fire of 1368 and the Second World War, which is why you will now see a Gothic structure complete with a Baroque high altar and some beautiful ceiling frescoes in the Rococo style. The Romanesque-style church hosts services several times each day, and it's well worth attending one to admire the interior of the building. St. Peter's has a tall tower that you can climb up to get some stunning views of the city. Locals fondly refer to this 300-steps tower as Alderpeter and it is one of Munich's most remarkable landmarks. 6. Frankirch Not far from the centrally located Marienplatz in Munich's Old Town stands Frankirch. Its onion-domed twin towers dominate the skyline. As no other building in the central city is as tall, this late Gothic brick structure has even wider acclaim. Since by way of a referendum, Münchners voted to restrict all new buildings to a height lesser than that of the twin towers for all buildings in the city's middle ring road. This church also suffered heavy destruction during the Second World War and was restored over the years. An intriguing feature in this church is the Tufelstritt, or Devil's Footprint, which is a large imprint of a foot with lures attached to it. Best told by the locals, the cathedral houses a black marble tomb, the resting place of Emperor Ludwig of Bavaria, amidst other treasures. You can climb up to the observation platform of the south tower for a magnificent view of the city. 7. Michael's Church or St. Michael's Church The largest Renaissance church north of the Alps, St. Michael's was completed in 1597 with a high barrel-vaulted roof in the nave. Usually Renaissance churches have towers, but you won't find one at Michael's Church or St. Michael's Church. During its construction, the tower fell. Patron Duke Willem V took it as an act of God that the church was too small and so he ordered the church be made bigger. And with barrel vaulting that today rivals St. Peter's Basilica in Rome, the church is free to tour. But you'll have to pay a small fee to view the crypt, where the Patron Duke, King Ludwig II, and others from the royal family are buried. The church is open daily, except during services. 8. Theathing Church At Odeonplatz you will be greeted by the splendid yellow facade of the 17th century Theathing Church. This monument was designed by Italian architects in the Baroque style and took cues from Rome's San Andrea della Valle. Give yourself time to marvel at the painted facade, rich with niches, reliefs, door columns and ionic pilasters. It's all the product of a holy vow given by Henriette Adelaide of Savoy, if she could give birth to a crown prince for the Elector Ferdinand Maria, through the doors. Keep an eye out for the altar with images of the Evangelist from 1722, the black wooden pulpit dating to 1688 and the crypt, resting place of several members of the Wittelspacht family. 9. Hellebrun Zoo Spread across 89 acres, Hellebrun Zoo is consistently ranked among the best zoos in Europe. Laid out in 1911, it was the first zoo in the world to have animals grouped according to where they came from. Today, more than 19,000 animals from 757 species are held in open enclosures meant to replicate the conditions of the wild, with animals that normally share habitats kept together wherever possible. Popular features include the Elephant House, the enormous 5,000-square-meter-free Flight Aviary, the Polarium and Ape Houses, located adjacent to the Isaur River in a designated conservation area. The zoo has many delightful footpaths, playgrounds and picnic spots. 10. Odeonsplats If you're planning to spend any time in the Altstadt, then you'll want to visit the Odeonsplats. This central plaza is a major landmark in the city, and it is packed with interesting and historically significant attractions. Both Ludwigstrasse and Briennerstrasse, two major thoroughfares through Munich, begin at the Odeonsplats. The plaza is also home to the Theodenerkirche, a beautiful Italian Baroque church, and the Field Marshal's Hall, also known as the Feldherrnau. The highlight of the Odeonsplats is the residence, a palace that is now open to the public and home to a collection of royal jewels, crowns and family portraits.</t>
+  </si>
+  <si>
+    <t>Hello everyone and welcome to beautiful Munich, Germany, home to Oktoberfest, Bayern Munich and of course beautiful Bavarian culture. But most importantly to you and me, it's also home to some amazing places to eat at. So today in this video we're going to be sharing with you some places that we ate at that we absolutely loved. As you can tell from my winterly, winterly all-black attire, we are here visiting in the middle of winter of course, so a lot of the typical beer garden experiences won't be present on this list. But winter obstacles aside, I still hope that you find this list useful on your trip here to Munich. So without further ado, let's check it out. Now, we all know the importance of a wholesome and balanced breakfast, so either Bavaria missed that lecture or they know something that we don't, cause we just had to experience the phenomenon that is beer for breakfast at Schneider Breuhaus. This place is a classic beer hall, but it's also one of the best places to experience a Bavarian breakfast in the old town. We indulged in our fair share of Weisswurst, which is the breakfast sausage of choice in Munich, complete with an addicting sweet mustard and of course the iconic pretzel. We even got a dish called the sturdy sepp, which came with toasty pretzel bread, a slice of Leberkäse and of course a fried egg to complete the breakfast vines. Wash it all down with our house-brewed beer of course, and you've got the most nutritious start to your day of exploring. If you're leaning towards a sweet breakfast, then Café Frischrut is another spot in Munich to grab a tea or coffee, and munch on some delicious but affordable bites as well. They're well known for their signature Schmaltznudel, which is a fried dough that's crispy and light on the outside and thin and elastic on the inside. They also do other equally as good pastries such as the simple Sritzerl, your classic German donut or Krapfen that's filled with a delicious apricot jam and these heavenly light, fluffy and caramelized buns called Rohrnudel. They have quite a limited menu, but you can tell that they've really nailed down the simple but beautiful pastries. Markets are the best introduction to a city's food culture, so of course a stop at the famous Viktualienmarket is essential when in Munich. This beautiful local-feeling market is open from 8am Monday to Saturday and it truly has it all. You've got fresh fruit and veg, butcheries, seafood and deli items for your grocery shopping and of course a good helping of food and free samples to keep you full during your visit. You can start off your day with a coffee at the Café Rösti Viktualienmarket or stuff yourself with an endless amount of sausages, sandwiches and meats at Schlemmermeier's Lekebissen. Also very handy are the free water fountains around the market so no need for bottled water. We didn't get to experience all the market has to offer, but they even have a beer garden in the warmer months, a soup kitchen, other restaurants, bakeries and much more. Now my favourite thing about Munich is their absolutely strong sausage game and Nürnberger Bratwurst Glocke am Dom does some amazingly juicy, juicy sausages. This place feels so rustic and it has over 100 years of history. But first we started with a beautiful Bavarian butcher's platter which was filled with all sorts of deli mates, veggies and a scoop of the iconic Obatzda or Bavarian cheese spread. We got three types of sausages from their super juicy cheese sausage, the peppery Stadwurst and my personal favourite, the simple but meaty Rossbratwurst. We also got them with some sides of classic sauerkraut or fermented cabbage, a creamy potato salad and some table side sachets of mustard. Of course dad and the bro wash it down with an Augustino beer and a Radler which is half beer and half lemonade. You honestly can't go wrong with sausages in Munich and as I like to say, German sausage game strong. Also make sure to leave room for their incredible Kaiserschmarrn. It's a popular dessert in Bavaria that's made with shredded up pancakes served with applesauce that is absolutely fluffy and caramelized. I just can't stop thinking about it. Speaking of sausages, you can't not have Currywurst when you're in Munich. It's a German food icon and the folks at Bergwulf really do some mean Currywurst. They were absolutely packed when we went, especially filled with young students looking for some affordable and comforting fast food. It's basically fries served with a sausage that's slathered with the signature curry ketchup for a spiciest and tomatoey tang. Can't forget the mayo as well which is the perfect condiment with fries and that's just facts. We got two types of Bergwulf, one with white bratwurst and another with a more intense red bratwurst which were both top tier. The bro even washed it down with another refreshing Radler. There really is no excuse to miss this place too cause it's right next to the U-Bahn station for ensured easy access. Currywurst may be the most iconic German fast food invention but the Doner Kebab is just as equally highly regarded for a quick snack or a late night meal. A quick Reddit search led us to West End's Best Doner for what some people think is the best Doner Kebab in the city. I honestly can't argue with the people claiming that cause one bite into this pocket of heavenly chicken, salad and sauce, I was sold. This stuff was exceptional. We got our doners with everything in it of course and peep that swaggy salt bae action from one of the chefs, oh yeah. We also grabbed a lahmacun wrap filled with meat and salad that was equally as delicious. They even make their pita in house and the quality of this fluffy yet crisp pita really shows. I also loved the pickled chilies and chili powder that they have on the table and you know I was having that with every bite. West End's Best Doner, I mean it's really in the name. Beer gardens are one of the great joys of visiting Munich but unfortunately for us, the winter months meant most beer gardens were closed. We were still adamant on getting even the slightest crumb of beer garden experience and luckily there was a small stall braving out the cold right next to the famous Chinese Tower in the English Garden. There wasn't much in terms of food but we still got a couple of snacks such as a bratwurst sandwich, some pretzels and even some more currywurst. I also opted for a Glühwein or mulled wine instead of a beer to warm me up. The Chinese Garden does blossom into one of the largest and most popular beer gardens in the city so we know for certain that we're going to have to run it back the next time we visit Munich. One week bender, here we go. And because we didn't get to properly experience a beer garden, we knew we had to at least experience the world famous Hofbräuhaus. This absolutely gigantic beer hall may be characterized as too touristy for some but you cannot deny that this place is filled with history and brimming with energy not only from the booming Bavarian band but also from fellow tourists like us. They do your classic Bavarian beer hall food which admittedly won't blow your taste buds off but it was still tasty enough to accompany our Hofbräu beers. Dad did the right thing getting the mandatory 1 liter beer whereas I got a measly half liter dark beer. What a rookie mistake. We ordered their Schweinsachse or roasted pork hock that's served with gravy and a potato dumpling, some suckling pig, my sister's favorite the cheesy Kaiserspätzle, a shredded pancake soup and we ended the night with a comforting apple strudel. Touristy or not, the Hofbräuhaus was truly a good time. I mean just ask this guy. He healed! He healed! Now if you're looking for good food away from the busy old town then just across the river Isar is Wörth's Haus in der Aue, a rustic local tavern that specializes in Kudodel or German dumplings. Usually you'll find plain potato or bread dumplings alongside your main dish throughout Munich but at Wörth's Haus in der Aue the bread dumpling is the star. We got a beautiful red beetroot dumpling paired with a refreshing apple and celery mix with sour cream and a spinach dumpling on a bed of tangy cherry tomato sauce and pesto. Both dumplings were bouncy and delightfully chewy. They're also well known for their roast duck here. It's perfectly roasted with tender meat and succulent skin and of course it's served with a dumpling. And if you're looking to take off your Munich beer tour they serve Polana beer. I do love some good old German schnitzel so if you're looking for some of the best then Augustiner Dreimühlen has got you. It's a spot filled with locals and is a bus ride away from the old town. They do a lot of different schnitzel flavors but we opted for their Isar schnitzel paired with a lovely mushroom sauce. I mean who doesn't love the look of that? This is your classic breaded veal schnitzel that's marinated in mustard and goes perfectly with a generous spritz of lemon. We also got their schnitzel Dreimühlen which uses a pretzel crumb instead. Great move pairing this with the cranberry sauce because it was a perfect pairing. Their Liebhaberplatte was also amazing. It's a platter of organ meats from liver, heart and even spleen sausage which was actually our favorite but low-key the best part were the jammy caramelized onions. Great local spot and like the name suggests they serve Augustiner beer. Last but not least we have another Augustiner spot, Augustiner Klosterwerke. I made the grave mistake of not getting a one liter beer at the Hofbräuhaus but I earned my redemption here. Not without great difficulty of course. This place is another enormous beer hall with two levels to fit in and they've got the comforting beer hall food to go with it. The sis couldn't resist getting another Käsespätzle and they do a goody in here too. I love the crispy onions on top honestly. More sausages were in order cause we just had to and as expected these were glorious cause you already know. German sausage game strong. We got some Schweinebraten which was rightfully fall apart with a super crispy crackling and we even got to try the German national dish of Sauerbraten which is a unique roast dish that feels like a mother's hug with it's complex and fruity sauce made with a variety of spices and gingerbread. Sorry Gingy. You're a monster. Honestly the one liter beer made this meal such a battle and you can tell cause I must have set a new personal record for fastest time to fall asleep after this meal. So yeah get your stomach ready for Munich cause it's all beer, meats and carbs in different shapes but I wouldn't have it any other way. And if you want to see more of these places and our food and travel adventures in Munich then be sure to watch the full vlogs over on our YouTube channel. Anyway guys that does it for our list. Obviously this only scratches the surface of the sheer amount of beautiful food you can eat in Munich but anyway whether you're here for a calm holiday or a cheeky five night bender we all know what you are going for really. Munich really does have the beautiful food to match it's amazing architecture and culture. Anyway guys we hope you found this list helpful and enjoy your stay in Munich. Bye bye.</t>
+  </si>
+  <si>
+    <t>Landshut-Hauptbahnhof Po Bawarii najlepiej jest podróżować pociągiem. Nie musicie martwić się, gdzie zaparkować auto i wszyscy uczestnicy wycieczki mogą napić się Glühwein. Najlepszą ofertą jest kupienie po prostu tzw. Bayern Ticket, czyli biletu, który uprawnia Was do dowolnej ilości przyjazdów pociągami i korzystanie z komunikacji miejskiej w obrębie właśnie Bawarii. Pinakoteka to muzeum sztuki w Monachium i ma ono kilka oddziałów, m.in. ten, który ja odwiedziłam, czyli Alte Pinakothek ze zbiorami sztuki klasycznej. Do muzeum warto wybrać się w niedzielę, mimo że jest troszeczkę więcej ludzi, to w większości muzeów bilety kosztują tylko i wyłącznie 1 euro. W Pinakotece można podziwiać dzieła totalnych klasyków, o których uczymy się na lekcjach historii, np. Canaletta, Rubensa czy Kaspara Dawida Friedricha. Tak naprawdę na zwiedzanie tego muzeum można poświęcić cały dzień. Dworzec Główny z Monachium Jeśli już dotrzecie do Dworca Głównego z Monachium, z tamtąd łatwo do wszystkich najważniejszych atrakcji turystycznych dojedziecie metrem. Dworzec Główny z Monachium Dworzec Główny z Monachium Jeśli planujecie robić zakupy, nawet pamiątkowe, weźcie ze sobą torbę wielorazową. Tutaj wszędzie jednorazowe reklamówki są płatne, a nie muszę wam mówić, że plastik to zło. Dodatkowo warto mieć ze sobą butelkę na wodę, dzięki temu sporo oszczędzacie. Bo w Niemczech można wszędzie pić wodę z kranu. Co prawda wjazd na wieżę w Parku Olimpia kosztuje parę ładnych euro, jednak jeśli macie ochotę upolować ładną fotkę na insta, warto je odżałować i wjechać na prawie 200 metrów i stamtąd zobaczyć Monachium. Z tarasu widokowego rozciąga się widok na całe miasto. W Prawni Obserwatorzy dojrzał Allianz Arena, Muzeum BMW, Starówkę oczywiście i oczywiście cały Park Olimpia. Dzięki bardzo za oglądanie. To co, kto wybiera się teraz na wycieczkę do Monachium?</t>
+  </si>
+  <si>
+    <t>Como guía turístico, quiero compartir con ustedes las mejores cosas para hacer en Münich, Alemania. Les mostraré las principales atracciones, visitaré cervecerías famosas, encontraré descubrimientos sorprendentes y exploraré el increíble patrimonio de la ciudad más popular de Alemania. Bienvenidos a la capital de Baviera, el estado alemán más grande. El casco antiguo alberga la mayoría de las atracciones y este campanario, conocido cariñosamente como el Viejo Pedro, les brindará la mejor visión general del centro histórico de la ciudad. El campanario de 300 pies de altura tiene una plataforma de observación, pero hay 306 escalones para llegar allí. La torre pertenece a la iglesia parroquial más antigua construida cuando los monjes fundaron la ciudad en el año 1100. No es de extrañar que el nombre de la ciudad derive de una palabra alemana que significa monje. Durante los últimos 800 años, la iglesia de San Pedro ha sido objeto de muchas reconstrucciones, pero sus características principales incluyen un fresco en el techo y un altar mayor barroco con una figura dorada de San Pedro. Curiosamente en una de las capillas laterales se encuentra una vitrina con un esqueleto recubierto de oro y decorado con piedras preciosas pertenecientes a Santa Mundicia. A un tiro de piedra, se encuentra la plaza principal de Munich, que siempre ha sido el corazón de la ciudad. La plaza debe su nombre a una columna en el centro, dedicada a la Virgen María, protectora de Baviera. Fue construido como agradecimiento a María por mantener segura Munich mientras estaba ocupada por Suecia en el siglo XVII. La plaza también cuenta no solo con uno, sino con dos ayuntamientos. El antiguo ayuntamiento data del siglo XVIII y cuenta con túneles distintivos. Con el rápido crecimiento de la ciudad en el siglo XIX, el antiguo ayuntamiento finalmente se quedó pequeño. Por eso se construyó un nuevo e impresionante ayuntamiento que reflejaba el poder y la riqueza de Baviera. Cuenta con una torre de reloj de 280 pies de altura con una plataforma de observación y ésta tiene ascensor. Pero la torre es famosa por albergar uno de los monumentos más populares de Munich, el Carillon. Merece la pena planificar una visita alrededor de sus campanadas, ya que 43 campanas suenan todos los días a las 11 de la mañana horas, al mediodía y a las 5 de la tarde horas. Si bien las campanas pueden tocar diferentes canciones, las figuras siempre mostrarán los mismos dos eventos históricos. La planta superior muestra una boda real del año 1568, cuando en esta plaza se celebró un torneo de justas y el caballero Bávaro triunfó sobre su oponente de Lorena. En la planta baja se puede ver el baile de los toneleros, cuando los toneleros fueron los primeros en salir a las calles para divertir a la gente después de una grave plaga en 1517. Por tradición, la danza se realiza cada 7 años. Aquí también se encuentra la Fuente del Pez, el lugar de encuentro más famoso de Munich. Además si lavan su cartera aquí el miércoles de ceniza, pasarán el resto del año sin preocupaciones económicas. Pero sus preocupaciones económicas empeorarán si da un paseo entre la plaza principal y la plaza Karlsplatz. Esta zona peatonal es la zona comercial más importante de Munich con hermosas tiendas. Las compras continúan incluso bajo tierra, donde se encuentra el centro comercial subterráneo más grande de Europa, un moderno y elegante Statues Passagen. Además de encantadoras tiendas, la zona peatonal ofrece grandes atracciones históricas y, literalmente, la más grande es la Catedral de Munich. La enorme iglesia del siglo XV tiene enormes campanarios gemelos, un símbolo de Munich. Las torres gemelas son un hito tan importante que ningún edificio nuevo puede exceder su altura. Uno de los campanarios ofrece el mirador más alto del casco antiguo, y antes de que pregunten, sí, tiene ascensor. La enorme iglesia tiene un interior amplio y sencillo dividido por una doble hilera de 22 pilares. Según la leyenda, el dinero para la construcción fue aportado por el mismísimo diablo. Su condición fue que el edificio no tuviera ventanas para celebrar la oscuridad. Cuando el diablo entró en la iglesia, no pudo ver ventanas, aunque sí había luz. Después de dar unos pocos pasos, los pilares revelaron las ventanas. Angry Devil golpeó su pie, marcando para siempre el suelo con su huella. Pero muy tarde, el diablo se fue. Después, Angry Devil golpeó su pie, marcando para siempre el suelo con su huella. Pero Munich tiene lugares de devoción aún más populares, sus mundialmente famosas cervecerías. Y esto es todo, la Hofbrauhaus, una de las tabernas más famosas del mundo y cuna de la cultura cervecera bávara. Cada día, grandes multitudes de personas visitan sus inmensas cervecerías, especialmente durante el Oktoberfest. Según la leyenda, el duque de Baviera encontró tan mala la cerveza en Munich que fundó su propia cervecería estatal. En 1589, se construyó la cervecería Hofbrauhaus para producir cerveza para la realeza bávara. En el siglo XIX, la Hofbrauhaus se abrió al público y rápidamente se convirtió en el centro de la vida pública y política. La cervecería se trasladó a las afueras, mientras que el edificio original fue remodelado para albergar cervecerías. Sus salas históricas están consideradas la cuna de la cultura taberna bávara, y en una de ellas Hitler incluso fundó el partido nazi. Las mesas centenarias están reservadas para los clientes habituales, marcadas con la palabra Stammtisch, ya que la taberna tiene más de 100 grupos activos de clientes habituales que guardan sus propias jarras de cerveza personalizadas en un estante seguro para jarras de cerveza. Por supuesto, en Munich se esperan iglesias antiguas, plazas antiguas y cervecerías antiguas, pero los próximos tres descubrimientos los sorprenderán. Primero hay una escalera interminable llamada Umsreibung. Se encuentra como una escultura en el atrio de un edificio de oficinas no lejos del recinto ferial del Oktoberfest. Dos escaleras de caracol entrelazadas crean un bucle continuo en forma de doble hélice. La estructura está impresionantemente equilibrada en un punto y representa un movimiento sin destino. Otra sorpresa es una popular playa de verano, aunque a cientos de kilómetros del mar. El río Isar tiene un tramo popular conocido como Flautscher con amplias orillas de guijarros que invitan a hacer barbacoas, nadar y relajarse. La zona debe su nombre al tabernero Johann Flautscher. Este hombre transformó en el siglo XIX la antigua cabaña forestal en una de las cervecerías al aire libre más visitadas de Munich. Sorprendentemente, en el centro de la ciudad de Munich se practica mucho surf. El río artificial Eisbach ofrece olas constantes que atraen a surfistas y curiosos durante todo el año. Las olas del río Eisbach se encuentran a la entrada de uno de los parques urbanos más grandes de Europa, el English Garden Park. El parque fue diseñado al estilo de un parque paisajístico inglés, de ahí su nombre. Su punto de referencia es un edificio parecido a un templo llamado Monopteros, que se encuentra sobre una colina artificial y ofrece una hermosa vista de la ciudad. Otro hito del parque es la Torre China de finales del siglo XVIII. Alrededor de una torre de madera de cinco pisos se encuentra la segunda taberna al aire libre más grande de Munich con aproximadamente 7.000 asientos. La torre de 25 metros fue construida como plataforma de observación. La torre fue destruida por los invasores de la época, y se convirtió en el lugar más antiguo del mundo. Fue construida durante la Segunda Guerra Mundial y reconstruida en su estilo original, aunque ya no sirve como plataforma de observación por razones de seguridad. Pero en 1972, uno de los muchos parques de la ciudad de Munich acogió las ceremonias de inauguración y clausura de los Juegos Olímpicos de Verano. El singular estadio olímpico con su mundialmente famoso techo de carpa se utilizó para las ceremonias de apertura y clausura, y ahora alberga eventos culturales y deportivos. Aquí también se encuentra una montaña olímpica verde que se eleva sobre el lago olímpico. Después de la Segunda Guerra Mundial, Munich sufrió graves daños y la zona se utilizó como vertedero de escombros. Pero los Juegos Olímpicos brindaron la oportunidad de transformar una montaña de escombros en una montaña verde con una plataforma de observación de 360 grados. Pero la mejor vista de Munich y los Alpes se obtiene desde el edificio más alto de la ciudad y una de las torres más altas de Europa. La Torre de Televisión, conocida como Torre Olímpica, cuenta con un mirador a 190 metros de altura que ofrece la vista panorámica más amplia y espectacular, y puede visitarse diariamente de 9 a 23 horas. Justo al lado del Parque Olímpico se encuentra la sede de la mundialmente famosa marca de automóviles y motocicletas BMW. El complejo está marcado por un rascacielos distintivo y arquitecturas futuristas del Museo BMW y BMW World. El Museo BMW se encuentra dentro de un famoso edificio circular inaugurado en 1973. Muestra más de 100 años de historia de la empresa, exposiciones de coches, motos y motores, un seguimiento de los hitos y el diseño de BMW desde sus orígenes hasta la actualidad. El museo está conectado con otra obra maestra de la arquitectura moderna, BMW World. Aquí podrán ver los últimos coches y motos BMW y también podrán recorrer la fábrica. De vuelta en el casco antiguo, hay una verdadera joya escondida. Es esta iglesia del siglo XVIII que fue construida como capilla privada por dos hermanos. Pero debido a su extravagante interior, se convirtió en una iglesia pública que lleva el nombre de los dos hermanos. Como capilla privada, podría evitar las restricciones que normalmente se aplican a las iglesias y si echas un vistazo al interior verás por qué. Desgraciadamente, es una auténtica locura y su espectacular interior barroco solo se puede ver desde la entrada. Aún así, pueden verlo casi todo desde las puertas de hierro, aunque hay tantos detalles que nunca podrán verlos todos. El área para sentarse de la iglesia representa la tierra y es relativamente oscura y sombría, pero cuanto más arriba miras, más brillante se vuelve la iglesia. El nivel superior, brillantemente iluminado, se abre hacia el cielo y está dedicado a Dios y a la eternidad. Como sede del reino bávaro, Munich cuenta con un impresionante palacio real. Su lado occidental se abre a esta plaza con un boulevard y ambos fueron encargados por el rey Luis I. El rey Luis era un fanático de la arquitectura y el arte italiano, como se puede ver en una réplica de la loggia dei Lanzi de Florencia. Está dedicado al ejército bávaro ya que alberga estatuas de bronce de generales bávaros. Frente al palacio real se encuentra la llamativa fachada amarilla brillante de la iglesia Theotainer, también de estilo barroco italiano. La plaza se abre hacia el boulevard más grande de la ciudad, la avenida real de Ludwigstrasse, que solía servir para los desfiles estatales. Y esta era la sede del reino bávaro, el palacio urbano más grande de Alemania. La residencia de Munich fue la sede del gobierno y residencia de los duques, electores y reyes de Baviera durante más de 400 años, hasta el final de la Primera Guerra Mundial. Gran parte de la residencia fue destruida durante la Segunda Guerra Mundial, pero fue gradualmente reconstruida y renovada hasta su estado original, y una vez más refleja el poder y la riqueza de los monarcas bávaros. Es uno de los complejos museísticos más grandes y para ver sus 130 salas llevará algún tiempo. El rey Luis I amplió el complejo residencial y lo decoró en su estilo renacentista italiano. En taquilla no encontrarán visitas guiadas, pero podrán recorrerlas por su cuenta utilizando una audioguía gratuita. Asegúrense de visitar un increíble salón de banquetes con bóveda de cañón y frescos, creado para mostrar la extensa colección real de antigüedades. Tampoco deberían perderse un tesoro con una colección de joyas que abarca más de mil años, incluida la corona de la Princesa Blanca, la corona real de Inglaterra más antigua que se conserva. También vale la pena visitar los hermosos jardines reales conocidos como Hofgarten. Están rodeados de impresionantes pasajes de estilo Arcada decorados con frescos y albergan el Museo del Teatro Alemán. En el centro del parque se encuentra un pabellón del siglo XVII, conocido popularmente como Templo de Diana. Este es un parque muy popular y relajante con entrada gratuita. En las afueras de Munich se encuentran los restos más impresionantes del esplendor real que dominó Baviera durante siglos. Uno de los palacios reales más grandes de Europa sirvió como residencia de verano de los Reyes Bávaros y su anchura supera incluso al famoso Versalles francés. Cuando se fundó en el siglo XVII, se construyó un palacio de estilo barroco lujosamente decorado en un campo abierto en las afueras de la ciudad. Pueden visitar el interior para admirar la exquisita decoración y el mobiliario de la época bien conservados. Lo más destacado incluye un salón de baile de estilo rococó, el dormitorio de la reina con la cama en la que nació el famoso rey Luis II y una colección de retratos de hermosas mujeres admiradas por Luis Y. El palacio también alberga varios museos, incluida una de las colecciones de carruajes de la corte más importantes del mundo y la colección de porcelana más grande del mundo. El enorme jardín que rodea el palacio está inspirado en los jardines franceses de Versalles con un diseño simétrico y una magnífica gran escalera. El resto del parque es predominantemente un parque paisajístico inglés con pequeños castillos románticos, pabellones, lagos y puentes. En taquilla pueden conseguir una audio guía, pero también hay una aplicación del parque que te ayuda a descubrir la propiedad. Hay mucho que ver aquí, así que prepárense para caminar mucho y pasar al menos medio día. Pero además de las increíbles atracciones, también deberían explorar la increíble comida y cerveza de Munich en la esquina superior derecha. Consulten también mis tours y experiencias favoritos de Munich en la descripción a continuación. Mi nombre es Roque. Muchas gracias por darle me gusta y por mirar. Y hasta la próxima. Subtítulos por la comunidad de Amara.org</t>
+  </si>
+  <si>
+    <t>We're Matt and Nat, and we've spent the last three years traveling the world as part-time non-remote travelers. After accomplishing our goal of visiting all 50 U.S. states in 2021, we've set out on our next big adventure to see as many of the 1,000 places to see before you die, well, before we die. In our last video, we were in Quebec, Canada at North America's only ice hotel, where we had a dance party at the ice bar, thawed out and relaxed in the Arctic spa, and experienced our coldest adventure yet, sleeping in a hotel room made of ice. This week, we're in Munich, Germany. Welcome to Munich. If you've been following our channel for a while now, then you know that we've been to Munich a couple of times before. We were actually here in 2019 for Oktoberfest, but that was before we started our YouTube channel, and then again last year for the Christmas markets. But since we were here for specific festivals and events, we never really got to explore the city that much, so that's what we plan to do today. Now obviously, there is so much more to do, see, and eat here in Munich than we're going to be able to do in one day, but make sure you guys check out our blog for a whole lot more detail and recommendations. So now we're going to start things off with a world-famous delicatessen and cafe. So I can't remember the name of the tea, but I know it was number 113. It is delicious. A place that has matching china is for me. Obsessed. A place that has china at all is slightly unusual for us. With a matching, I mean. So we ordered a lot more than we thought we did. Our table is barely big enough to even hold it all, but let's dig in. I got the eggs benedict with salmon on top. Looks absolutely incredible. So good. This is a very big bite. Oh my gosh. Decadent in every single way possible. I'm obsessed with this place. I got the power bowl, which has apple, granola, mixed berries, pomegranate seeds, and then I also got the petite breakfast, which I didn't really read. I thought it was just a basket of bread, but it actually comes with fruit and jams and jellies, and I'm absolutely in heaven. That's influence. Yeah. So good. So good. That was absolutely amazing. If you're looking for an excellent cafe during your visit to Munich, this is the place. Especially for all of you coffee and tea lovers out there. Oh my gosh, yes. Yes. They have specialty. My tea that I got said it was for a connoisseur. Now if this doesn't scream connoisseur, I mean, come on. They also had quite a handful of selections of single origin coffees, and of course the breakfast. You saw that. Absolutely incredible. So definitely come here. And now the prices aren't astronomical, but it felt like such a luxury experience. I can't recommend it enough. Yeah, and they have like a full deli downstairs with a shopping area. They have fine dining next door. I mean, this place is awesome. They have everything. But now we're going to go see if we can get a bird's eye view of the city. Let's go. Tight fit. It is a lot. I didn't get my training in before this. We're here during the middle of the week, so there's a lot of school groups and they're a little loud. We're ambunctious. Got a traffic jam. I don't think that they limit the amount of people going up and down the stairs. It's fine. I heard in German that they said we're halfway. Oh, is that what that was? That's what that was. I'm glad you understand it. Yeah. Just sweating a lot, you know. It's fine. This place is awesome. You can hear the bells. Yep, it's a beautiful view of the city. It is a little tight of a space, but if you can get up here, the breeze feels amazing. I mean, the view is spectacular. Now, we're going to make the climb back down and go explore the Old Town. We're here at Marion's Pots, and as you can tell by all of the people, there's about to be a show. By show, she means a clock tower show every day at 11 a.m. and 12 p.m. The clock goes off. It has a whole little show that happens with it, and then between March and October, I believe there's an additional show at 5 p.m. We've experienced it one time before, I believe. Yeah, if you've watched our Christmas market video right here, it was raining, so this is way more beautiful. So, we're going to hang out with these thousands of people and watch the show. So, we're going to hang out with these thousands of people and watch the show. Thank you. Thank you. Thank you. We got postcards for our patrons. We want to thank every single name down below. Without you guys, we would not be able to do this channel. And if you're interested in supporting our channel and what we do, check out our Patreon page. We'll put a link for it down in the description of this video. We would love to have you in the family. Not only does it help us, but it also comes with some pretty cool perks. So, let's get started. Thank you. So, we decided to make a quick stop at the Munich Residenz, which is a palace right here in the middle of the city. For centuries, rulers and leaders have lived here in extreme opulence. Oh my gosh, the pictures look amazing. We would love to do the tour and the museum, which they have and you can absolutely do and we recommend. But since we've only got the day to explore the city, we decided just to make a quick stop. But if you watched our Christmas market video, you probably recognize this courtyard that we're standing in right now. That's because they set up an entire Christmas market in this courtyard and it was amazing. I am loving just walking around this beautiful city. It's completely different from when we were here at Christmas time, so it's just really beautiful. Everybody's out. The weather is gorgeous. I highly recommend checking it out in two different seasons. If you have more time than we do, we definitely recommend taking a free walking tour. And we'll link the company that we always use down in the description of the video. It's just so great getting to walk around the city with a local guide, learning the history, the culture. So check it out. When you visit Odeon's Plots, you can't miss the opportunity to come and check out the Hofgarten, which is right next to it. It used to be the private backyard of the residence and now it is open to the public and it's a beautiful park and green space with walkways and fountains and beautiful flowers. You have to check it out. Now when you walk through the gates, make sure you turn around and check out these awesome murals that King Ludwig commissioned and it tells the history of Bavaria. But now I think it's time for some lunch because we are getting really, really hungry, so let's go. Guys, win in Germany. Cheers. So I ordered a half Radler because I didn't want a huge one, but a Radler is like half beer, half citrus soda. And it is so refreshing, especially on like a warm day. So good. Why did I wink? I don't know. Oh my God. Women at Oktoberfest carry like 16 or 20 of these. It's insane. They are so heavy. I'm going to try it. That's good. I like mine better though. Look at the size difference. I got the Currywurst, which is a sausage with a curry sauce over top of it and I got fries or Pommes frites as my side. So I ordered the Wienerschnitzel, which is a thin veal cutlet hammered down, breaded and fried. And I also got Pommes frites on the side. And if you couldn't tell, it was pretty amazing. Told ya. It was good. So we spent way too long at the beer garden, but I am definitely not mad about it. And that's only because it was absolutely amazing. Yeah. The food was great. The beer was incredible. And it's something that you have to experience when you're in Munich. Now the Viktualien market is such a cool experience all in itself. There are different vendors. So there's like cheese shops and meat stores. And produce. And restaurants. Forests. All the things that you could ever want out of a market are there. So definitely take time to experience that. You definitely could spend hours just exploring that little area. For sure. But now I think we're going to be going to... Get dessert. Alright, so we just went to Cafe Frischut. Schmalznoodle. And we got a Schmalznoodle. Perfect. Good job. Let us know in the comments. I don't think I said it correctly. But it's like fried dough. And we got it with sugar. Obviously. And that is all that that cafe does is fried dough items. Now also, it's cash only. So make sure you have cash before you go. And it's hot. It's fresh. Just smell that. Stick your nose in that bag. That smells so good. What's not to love? Fried dough. Fried to perfection. Then toast and sugar. So good. Oh my gosh. We should have got two. We got it to go, but we definitely recommend sitting, getting a coffee, and eating. They've got a little outside seating area on a beautiful day like today. Definitely recommend doing that. Now we're going to take our Schmalznoodle and go walking. So if you want to use the bathroom here in Europe, bring cash. You can always put in water closet, and they should show you a public restroom on Google Maps. So Matt didn't want me on Maximilian Street for very long. So we literally were on it for like a block. And that is like the expensive stores. It's just the way Google is taking it. Oh, is that right? So if you are very into luxury shopping, that is the place for you. I unfortunately am not, but good for you. You are into it. I mean, I am into it, but I don't know. Yeah, you're right. Yeah. This is somewhere that has been on my bucket list for years. Before I even knew it was in Munich more than a decade ago, I wanted to come see this place. So yes, I'm in heaven. Does it live up to the hype? 100%. Absolutely. That was so cool. I wish I could surf like that. I would jump right in. That's a pretty high pressure place to surf, though, because you have a pretty big audience the entire time. All right. So now we're going to be exploring the English Garden a little bit. Let's do it. I do want to forewarn any American coming to the English Garden. There may or may not be nudity. So just prepare yourself for that. I don't know if it's just a certain part of the English Garden or the English Garden as a whole. I don't know. Apparently you can sunbathe or just enjoy nature in the nude. Yeah. So more power to you if that's your thing. The English Garden is where you want to go. This is just for our moms, but we're not partaking. And we're also here with a lot of fully clothed people. So just that. We didn't walk all this way for nothing. So we just got off the bus. I wanted to film us getting onto the bus, but it came way too fast. And yeah. Yeah, it was a bit of a frenzy to catch it. And then we rode it one stop too far. So now we got to backtrack a little bit. Always make sure that you validate your tickets. So that is a pro tip. Yeah, because there's nobody checking. But somebody could check and then you'll get in trouble. Yeah, we always validate. So in the rush of almost missing the bus and getting on the U-Bahn and that whole thing, we forgot to tell you what we're doing. We are headed to dinner at one of the best Bavarian restaurants in the city center. We have heard mixed opinions on whether it's a tourist trap or not. You let us know in the comments if you've been and what you think. But it is called... I'll put it right here. Augustiner Klosterwirt. Nailed it. Nailed it. Very German sounding, I'm sure. We are super excited to eat some more Bavarian food. I got the full pork knuckle in the dark beer gravy with a potato dumpling on the side and the coleslaw. How are you going to eat that, Matt? With a fork and a knife. But in all seriousness, I'm not sure how I'm going to eat it. Yeah, it's pretty dang good. It's got that pork crackling skin on it. It's like crispy on the outside, tender and juicy on the inside. And then that dark gravy just adds a nice richness of flavor. Oh yeah, I'm a fan. Alright, so I'm going to read what I got. I got the Junge Schweinbraten in Dunkelbeersauce mit Kartoffelnudeln and Speckkrautsalat. I don't know. It's pretty much a pork roast with a potato dumpling and bacon coleslaw in dark beer gravy. Let's dig in. The gravy is so good. It's not super creamy. The potato dumpling has a very interesting texture to it. It tastes like potato, but the texture is not like a potato. It's very interesting. But everything is cooked to perfection. I am a fan of this place. So dinner was super filling. The waiter was actually taking it back when I ordered the full pork knuckle. And I didn't realize why until it came. That thing was huge. It's definitely something that you should order and split between two or three people. But, you know, you live and you learn. But that's going to actually end our time exploring the city of Munich. We hope you've enjoyed watching this video as much as we've enjoyed making it because we truly have loved getting to experience this city in a new way, unlike we have in the past. And if you did enjoy watching the video, please remember to hit that big thumbs up button and subscribe for more travel videos. Now while that ends our time exploring the city of Munich, that doesn't end our time here in Munich. So we're actually going to be going to the largest folk festival in the world. That's right. So we'll see you guys there. Great view. What did I get? Oh, schnitzel. Fried and breaded? Breaded and fried. Marked down, fried and fredded. I need to take a photo first. Oh. Oops, sorry. Sorry. Got him. This guy is amazing on the accordion. Fun fact, did you guys know that Matt won an accordion at a Secret Santa? I did. I've yet to learn how to play it, but I have one. Yeah, you need to learn so you can be as good as that guy. Oh, gosh. Oh, gosh. Oh, gosh. Can you hear me now? I'm struggling. Smell my bag. Hashtag. If you know, you know. And then we do, we... I was going to say highly recommend. That's my favorite thing, because I do highly recommend it. My favorite is when she really loves something, she goes, highly, highly, highly recommend. I'm about to start cutting them out, so it's just one. I'm sorry. That's all right. I always say, here in Munich, here in Greenville, here in Asheville, here in... Yeah, so when you guys leave comments and you say things, we know, okay? We watch and edit these vlogs. If anyone knows that we have habits of saying things over and over again. It's us. It's us. We're working on it. We're unfortunately aware. I'm frozen. I'm frozen. The moon keeps high. Just practicing for tomorrow. A little hint for you guys where we're headed. We'll see you guys tomorrow.</t>
+  </si>
+  <si>
+    <t>1. Munich Residence
+2. English Garden
+3. Marienplatz
+4. Old City Hall
+5. Fischbrunnen
+6. New City Hall
+7. Viktualienmarkt
+8. Asamkirche (Church of Saint Johann Nepomuk)
+9. Cathedral Church of Our Lady (Frauenkirche)
+10. Augustinian Abbey (German hunting and fishing museum)
+11. Ludwig Maximilian University of Munich (Wounds of Memory)
+12. Hofbräuhaus
+13. Groß-Hesse-Lohau station (old railway station turned brewery)
+14. Eisbachwelle
+15. Kleine Eisbachwelle</t>
+  </si>
+  <si>
+    <t>['The Spice Bazaar', 'Fugazi', 'Yuzumuk', 'Jungle Inn Café', 'Spicery', 'Haguruma']</t>
+  </si>
+  <si>
+    <t>1. Hauptbahnhof
+2. Hofbräu Keller am Wiener Platz
+3. Deutsches Museum
+4. Wirtshaus in der Au
+5. Dreimühlen</t>
+  </si>
+  <si>
+    <t>['Bappas, Bavarian tapas', 'Café Kaiserschmarrn by Café Richard', 'Hofbräukeller', 'Paulaner am Nockerberg', 'Bodi']</t>
+  </si>
+  <si>
+    <t>1. Irish Connoisseur
+2. Marianenplatz
+3. sklep Bayernu Monachium
+4. wioska olimpijska
+5. stadion olimpijski
+6. siedziba BMW
+7. muzeum BMW
+8. stadion Bayer Monachium</t>
+  </si>
+  <si>
+    <t>1. Park Angielski
+2. Muzeum Paleontologiczne na Maxforstadt
+3. Plac Mariacki
+4. Glockenspiel
+5. Księgarnia Hugendubel
+6. Strumming Eisbach w Parku Angielskim</t>
+  </si>
+  <si>
+    <t>1. Augustinobreu
+2. Hackerschor
+3. Hofbreu
+4. Löwenbreu
+5. Paulaner
+6. Spaten
+7. Marienplatz
+8. Neuschadhaus
+9. New Town Hall
+10. Old Town Hall
+11. St. Peter's Tower
+12. Ludwig Beck Department Store Café
+13. Café Glockenspiel
+14. Viktualienmarkt
+15. Women's Church (Frauenkirche)
+16. Munich Residenz
+17. Hofgarten
+18. Bavarian State Chancellery 
+19. Odeonsplatz
+20. Felternhalle
+21. Theatinerkirche
+22. Hofbräuhaus
+23. Spatenhaus
+24. National Theatre
+25. Maximilianstrasse
+26. Maximillanium
+27. Kaufingerstrasse
+28. Neuhauserstrasse
+29. German Hunting and Fishing Museum
+30. St. Michael's Church
+31. Stachus (Karlsplatz)
+32. Isartor
+33. Sendlinger Tor
+34. Asamkirche
+35. St. Jakobsplatz
+36. Munich City Museum
+37. Munich Jewish History Museum
+38. Bayerischer Hof Hotel (Michael Jackson Memorial)
+39. Eisbachwelle
+40. Haus der Kunst
+41. Bavarian National Museum
+42. English Garden
+43. Monopteros in the English Garden
+44. Japanese Tea Garden
+45. Chinese Tower
+46. Seehaus Beer Garden
+47. Siegestor
+48. Ludwig Maximilians University
+49. Königsplatz
+50. Glyptothek
+51. Bavarian State Collection of Antiquities
+52. Lenbachhaus
+53. NS Documentation Center
+54. Alte Pinakothek
+55. Neue Pinakothek
+56. Pinakothek der Moderne
+57. St. Boniface Abbey
+58. Der Verrückte Eismacher
+59. Deutsches Museum
+60. Glockenbachviertel
+61. Theresienwiese
+62. Umschreibung
+63. Olympia Park
+64. Olympic Tower
+65. Sea Life Munich
+66. Olympic Stadium
+67. BMW World
+68. BMW Museum
+69. Olympiadorf
+70. Olympiaeinkaufzentrum (Basketball court)
+71. Schloss Nymphenburg (Nymphenburg Palace)
+72. Munich Botanical Garden
+73. Hirschgarten
+74. Allianz Arena
+75. Schwabing
+76. Wiener Platz
+77. Museum Lichtspiel
+78. Friedensengel
+79. Werksviertel Mitte
+80. Uma-Dome
+81. Untergiesing
+82. Gansvoellanders
+83. Bonfeuille-Tetiel
+84. MS Utting
+85. Westpark</t>
+  </si>
+  <si>
+    <t>1. Cafe Frischat
+2. Carnals
+3. Rathaus Glockenspiel
+4. Schneiderweiss
+5. Pommes Fruita
+6. Mütterstuben</t>
+  </si>
+  <si>
+    <t>['Dachau', 'Ogród Pagliwskiego']</t>
+  </si>
+  <si>
+    <t>1. Theresienwiese
+2. Chinese Tower in the English Garden
+3. English Garden
+4. Eisbach wave
+5. Viktualienmarkt
+6. Marienplatz
+7. New Town Hall
+8. Odeonsplatz
+9. Theatinchurch
+10. Feldherrnhallerlodger
+11. Munich Residence
+12. Nymphenburg Palace
+13. Allianz Arena
+14. Kaufingerstraße
+15. Karlsplatz (Stachus)
+16. Bayerischer Hof
+17. Alte Pinakothek
+18. Pinakothek der Moderne
+19. Deutsches Museum
+20. Hofbräuhaus</t>
+  </si>
+  <si>
+    <t>1. Karlsplatz (Stachus)
+2. Karlsdorff Gate
+3. Kaufingerstrasse
+4. Oberponinger
+5. Rischat (bakery)
+6. Kunstsupermarkt
+7. FC Bayern store
+8. Frauenkirche
+9. Marienplatz
+10. Glockenspiel
+11. Viktualienmarkt
+12. Odeonsplatz
+13. Hofgarten
+14. Residence (Munich's monarchs and rulers)
+15. Maximilianstraße
+16. Einger am Platzl</t>
+  </si>
+  <si>
+    <t>1. Hofbrauhaus
+2. Alte Pinakothek
+3. Neue Pinakothek
+4. Modern Pinakothek
+5. Residenz
+6. Nymphenburg Palace
+7. BMW Museum
+8. Toy Museum
+9. Deutsches Museum
+10. Augustina Brew House
+11. Englischer Garten
+12. Rathaus Neues
+13. Olympic Park
+14. Dachau Concentration Camp</t>
+  </si>
+  <si>
+    <t>1. English Garden
+2. Berlin-Marienplatz
+3. Neus Rathaus
+4. Old Town Hall
+5. Mariensäule Column
+6. Nymphenburg Palace 
+7. Wiktualienmarkt
+8. Olympic Park
+9. St. Peter's Church
+10. Frankirch
+11. Michael's Church or St. Michael's Church
+12. Theatine Church
+13. Hellabrunn Zoo
+14. Odeonsplatz</t>
+  </si>
+  <si>
+    <t>1. Schneider Breuhaus
+2. Café Frischhut
+3. Viktualienmarkt
+4. Café Rösti Viktualienmarkt
+5. Schlemmermeyer's Lekebissen
+6. Nürnberger Bratwurst Glocke am Dom
+7. Bergwulf
+8. West End's Best Doner
+9. Hofbräuhaus
+10. Wörth's Haus in der Aue
+11. Augustiner Dreimühlen
+12. Augustiner Klosterwerke</t>
+  </si>
+  <si>
+    <t>1. Bayern Ticket
+2. Alte Pinakothek
+3. Dworzec Główny z Monachium
+4. Park Olimpia
+5. Allianz Arena
+6. Muzeum BMW</t>
+  </si>
+  <si>
+    <t>1. Viejo Pedro
+2. Iglesia de San Pedro
+3. Plaza principal de Munich
+4. Antiguo Ayuntamiento
+5. Nuevo Ayuntamiento
+6. Carillon
+7. Fuente del Pez
+8. Catedral de Munich
+9. Statues Passagen
+10. Hofbrauhaus
+11. Umsreibung 
+12. Flautscher
+13. Eisbach
+14. English Garden Park
+15. Monopteros
+16. Torre China
+17. Estadio Olímpico
+18. Torre Olímpica
+19. Museo BMW
+20. BMW World
+21. Residencia de Munich
+22. Hofgarten
+23. Museo del Teatro Alemán</t>
+  </si>
+  <si>
+    <t>1. Marion's Pots
+2. Munich Residenz
+3. Odeon's Plots
+4. Hofgarten
+5. Viktualien market
+6. Cafe Frischut
+7. Maximilian Street
+8. English Garden
+9. Augustiner Klosterwirt</t>
   </si>
 </sst>
 </file>
@@ -456,118 +771,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
